--- a/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,18 @@
     <t>['89', '90+2']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['25', '54', '78']</t>
+  </si>
+  <si>
+    <t>['45+3', '50']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -764,6 +776,15 @@
   </si>
   <si>
     <t>['59', '71']</t>
+  </si>
+  <si>
+    <t>['55', '90+6']</t>
+  </si>
+  <si>
+    <t>['67', '90+6']</t>
+  </si>
+  <si>
+    <t>['23', '77']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1390,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1838,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT4">
         <v>1.11</v>
@@ -2515,7 +2536,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2706,7 +2727,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2793,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT9">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2987,7 +3008,7 @@
         <v>2.25</v>
       </c>
       <c r="AT10">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3088,7 +3109,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3178,7 +3199,7 @@
         <v>1.11</v>
       </c>
       <c r="AT11">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3366,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT12">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3557,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT13">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3748,10 +3769,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT14">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4043,7 +4064,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4425,7 +4446,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4616,7 +4637,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4807,7 +4828,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4998,7 +5019,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5189,7 +5210,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5380,7 +5401,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5470,7 +5491,7 @@
         <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU23">
         <v>1.96</v>
@@ -5571,7 +5592,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5658,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT24">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU24">
         <v>1.98</v>
@@ -5849,7 +5870,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT25">
         <v>0.88</v>
@@ -6040,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT26">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6234,7 +6255,7 @@
         <v>2.25</v>
       </c>
       <c r="AT27">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU27">
         <v>2.42</v>
@@ -6422,10 +6443,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT28">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU28">
         <v>1.39</v>
@@ -6613,7 +6634,7 @@
         <v>2</v>
       </c>
       <c r="AS29">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT29">
         <v>1.11</v>
@@ -6804,10 +6825,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT30">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU30">
         <v>0.95</v>
@@ -6908,7 +6929,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7186,7 +7207,7 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT32">
         <v>1.44</v>
@@ -7481,7 +7502,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7672,7 +7693,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7762,7 +7783,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU35">
         <v>1.83</v>
@@ -7863,7 +7884,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8141,10 +8162,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT37">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU37">
         <v>1.99</v>
@@ -8526,7 +8547,7 @@
         <v>2.25</v>
       </c>
       <c r="AT39">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU39">
         <v>2.2</v>
@@ -8714,10 +8735,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT40">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU40">
         <v>0.92</v>
@@ -8818,7 +8839,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -9096,10 +9117,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU42">
         <v>1.22</v>
@@ -9200,7 +9221,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9287,10 +9308,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT43">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9391,7 +9412,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9478,7 +9499,7 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT44">
         <v>0.88</v>
@@ -9669,7 +9690,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT45">
         <v>1.38</v>
@@ -9773,7 +9794,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9863,7 +9884,7 @@
         <v>1.7</v>
       </c>
       <c r="AT46">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU46">
         <v>1.87</v>
@@ -9964,7 +9985,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10155,7 +10176,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10245,7 +10266,7 @@
         <v>2.13</v>
       </c>
       <c r="AT48">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU48">
         <v>1.98</v>
@@ -10433,7 +10454,7 @@
         <v>0.33</v>
       </c>
       <c r="AS49">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT49">
         <v>1.22</v>
@@ -10537,7 +10558,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10624,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT50">
         <v>0.5600000000000001</v>
@@ -10818,7 +10839,7 @@
         <v>1.11</v>
       </c>
       <c r="AT51">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU51">
         <v>1.61</v>
@@ -11009,7 +11030,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU52">
         <v>1.76</v>
@@ -11110,7 +11131,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11683,7 +11704,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11874,7 +11895,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11964,7 +11985,7 @@
         <v>1.44</v>
       </c>
       <c r="AT57">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12152,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT58">
         <v>1.38</v>
@@ -12343,7 +12364,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT59">
         <v>0.5600000000000001</v>
@@ -12534,7 +12555,7 @@
         <v>2.33</v>
       </c>
       <c r="AS60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>0.88</v>
@@ -12728,7 +12749,7 @@
         <v>1.7</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU61">
         <v>1.97</v>
@@ -13020,7 +13041,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13110,7 +13131,7 @@
         <v>1.71</v>
       </c>
       <c r="AT63">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU63">
         <v>1.65</v>
@@ -13298,7 +13319,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT64">
         <v>1.44</v>
@@ -13489,10 +13510,10 @@
         <v>0.67</v>
       </c>
       <c r="AS65">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT65">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU65">
         <v>1.94</v>
@@ -13680,7 +13701,7 @@
         <v>0.8</v>
       </c>
       <c r="AS66">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT66">
         <v>1.22</v>
@@ -13784,7 +13805,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13874,7 +13895,7 @@
         <v>1.44</v>
       </c>
       <c r="AT67">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU67">
         <v>1.77</v>
@@ -13975,7 +13996,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14062,7 +14083,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT68">
         <v>1.44</v>
@@ -14166,7 +14187,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14253,7 +14274,7 @@
         <v>0.25</v>
       </c>
       <c r="AS69">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT69">
         <v>0.33</v>
@@ -14447,7 +14468,7 @@
         <v>1.11</v>
       </c>
       <c r="AT70">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14548,7 +14569,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14638,7 +14659,7 @@
         <v>2.13</v>
       </c>
       <c r="AT71">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU71">
         <v>2.05</v>
@@ -14739,7 +14760,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14826,10 +14847,10 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT72">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -15208,7 +15229,7 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.11</v>
@@ -15399,10 +15420,10 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU75">
         <v>1.05</v>
@@ -15593,7 +15614,7 @@
         <v>1.7</v>
       </c>
       <c r="AT76">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU76">
         <v>1.93</v>
@@ -15781,7 +15802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT77">
         <v>1.38</v>
@@ -16166,7 +16187,7 @@
         <v>2.33</v>
       </c>
       <c r="AT79">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU79">
         <v>1.91</v>
@@ -16354,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT80">
         <v>0.38</v>
@@ -16545,10 +16566,10 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT81">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.14</v>
@@ -16649,7 +16670,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -17031,7 +17052,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17312,7 +17333,7 @@
         <v>2.33</v>
       </c>
       <c r="AT85">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU85">
         <v>1.86</v>
@@ -17413,7 +17434,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17500,10 +17521,10 @@
         <v>1.2</v>
       </c>
       <c r="AS86">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT86">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU86">
         <v>1.91</v>
@@ -17604,7 +17625,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17691,7 +17712,7 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT87">
         <v>1.22</v>
@@ -17795,7 +17816,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -17885,7 +17906,7 @@
         <v>1.11</v>
       </c>
       <c r="AT88">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU88">
         <v>1.59</v>
@@ -18073,7 +18094,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT89">
         <v>1</v>
@@ -18267,7 +18288,7 @@
         <v>1.71</v>
       </c>
       <c r="AT90">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU90">
         <v>1.7</v>
@@ -18368,7 +18389,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18455,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT91">
         <v>0.38</v>
@@ -18646,10 +18667,10 @@
         <v>0.6</v>
       </c>
       <c r="AS92">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT92">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU92">
         <v>1.85</v>
@@ -18750,7 +18771,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18837,10 +18858,10 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT93">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU93">
         <v>1.63</v>
@@ -18941,7 +18962,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19028,7 +19049,7 @@
         <v>1.4</v>
       </c>
       <c r="AS94">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT94">
         <v>0.88</v>
@@ -19132,7 +19153,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19323,7 +19344,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19413,7 +19434,7 @@
         <v>1.43</v>
       </c>
       <c r="AT96">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU96">
         <v>1.6</v>
@@ -19514,7 +19535,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19705,7 +19726,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19792,7 +19813,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT98">
         <v>1.22</v>
@@ -19986,7 +20007,7 @@
         <v>1.44</v>
       </c>
       <c r="AT99">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU99">
         <v>1.79</v>
@@ -20278,7 +20299,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20368,7 +20389,7 @@
         <v>1.44</v>
       </c>
       <c r="AT101">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU101">
         <v>1.75</v>
@@ -20469,7 +20490,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20938,10 +20959,10 @@
         <v>0.33</v>
       </c>
       <c r="AS104">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT104">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU104">
         <v>1.6</v>
@@ -21042,7 +21063,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21129,7 +21150,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21233,7 +21254,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21323,7 +21344,7 @@
         <v>1.44</v>
       </c>
       <c r="AT106">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU106">
         <v>1.91</v>
@@ -21424,7 +21445,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21511,10 +21532,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT107">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU107">
         <v>1.89</v>
@@ -21702,10 +21723,10 @@
         <v>1.2</v>
       </c>
       <c r="AS108">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT108">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU108">
         <v>1.8</v>
@@ -21997,7 +22018,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22084,7 +22105,7 @@
         <v>0.43</v>
       </c>
       <c r="AS110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT110">
         <v>0.33</v>
@@ -22188,7 +22209,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22379,7 +22400,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22570,7 +22591,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22657,7 +22678,7 @@
         <v>0.57</v>
       </c>
       <c r="AS113">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT113">
         <v>0.5600000000000001</v>
@@ -22761,7 +22782,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -22848,10 +22869,10 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT114">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU114">
         <v>1.24</v>
@@ -23042,7 +23063,7 @@
         <v>2.33</v>
       </c>
       <c r="AT115">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -23143,7 +23164,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23230,7 +23251,7 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT116">
         <v>1.38</v>
@@ -23334,7 +23355,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23615,7 +23636,7 @@
         <v>1.44</v>
       </c>
       <c r="AT118">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -23716,7 +23737,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23806,7 +23827,7 @@
         <v>1.7</v>
       </c>
       <c r="AT119">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU119">
         <v>1.76</v>
@@ -23907,7 +23928,7 @@
         <v>128</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24185,7 +24206,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT121">
         <v>1</v>
@@ -24289,7 +24310,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24376,10 +24397,10 @@
         <v>0.38</v>
       </c>
       <c r="AS122">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT122">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU122">
         <v>1.78</v>
@@ -24480,7 +24501,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24570,7 +24591,7 @@
         <v>1.11</v>
       </c>
       <c r="AT123">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU123">
         <v>1.74</v>
@@ -24758,10 +24779,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT124">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU124">
         <v>1.75</v>
@@ -24862,7 +24883,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -24949,7 +24970,7 @@
         <v>0.67</v>
       </c>
       <c r="AS125">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25143,7 +25164,7 @@
         <v>2.25</v>
       </c>
       <c r="AT126">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU126">
         <v>1.74</v>
@@ -25244,7 +25265,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25331,10 +25352,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT127">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU127">
         <v>1.83</v>
@@ -25435,7 +25456,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25522,10 +25543,10 @@
         <v>1.44</v>
       </c>
       <c r="AS128">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT128">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU128">
         <v>1.73</v>
@@ -25626,7 +25647,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25713,10 +25734,10 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT129">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU129">
         <v>1.6</v>
@@ -26008,7 +26029,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26095,7 +26116,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT131">
         <v>0.38</v>
@@ -26390,7 +26411,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26581,7 +26602,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26668,10 +26689,10 @@
         <v>0.86</v>
       </c>
       <c r="AS134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT134">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU134">
         <v>1.85</v>
@@ -26772,7 +26793,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26963,7 +26984,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27104,6 +27125,1343 @@
         <v>11</v>
       </c>
       <c r="BK136">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5121118</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45121.85416666666</v>
+      </c>
+      <c r="F137">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" t="s">
+        <v>66</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>83</v>
+      </c>
+      <c r="P137" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q137">
+        <v>6</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <v>7</v>
+      </c>
+      <c r="T137">
+        <v>2.75</v>
+      </c>
+      <c r="U137">
+        <v>2.1</v>
+      </c>
+      <c r="V137">
+        <v>3.6</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>2.7</v>
+      </c>
+      <c r="Y137">
+        <v>2.74</v>
+      </c>
+      <c r="Z137">
+        <v>1.36</v>
+      </c>
+      <c r="AA137">
+        <v>6.5</v>
+      </c>
+      <c r="AB137">
+        <v>1.08</v>
+      </c>
+      <c r="AC137">
+        <v>2.07</v>
+      </c>
+      <c r="AD137">
+        <v>3.1</v>
+      </c>
+      <c r="AE137">
+        <v>3.3</v>
+      </c>
+      <c r="AF137">
+        <v>1.05</v>
+      </c>
+      <c r="AG137">
+        <v>10.5</v>
+      </c>
+      <c r="AH137">
+        <v>1.28</v>
+      </c>
+      <c r="AI137">
+        <v>3.25</v>
+      </c>
+      <c r="AJ137">
+        <v>1.88</v>
+      </c>
+      <c r="AK137">
+        <v>1.73</v>
+      </c>
+      <c r="AL137">
+        <v>1.75</v>
+      </c>
+      <c r="AM137">
+        <v>1.95</v>
+      </c>
+      <c r="AN137">
+        <v>1.29</v>
+      </c>
+      <c r="AO137">
+        <v>1.29</v>
+      </c>
+      <c r="AP137">
+        <v>1.6</v>
+      </c>
+      <c r="AQ137">
+        <v>2.38</v>
+      </c>
+      <c r="AR137">
+        <v>1.44</v>
+      </c>
+      <c r="AS137">
+        <v>2.11</v>
+      </c>
+      <c r="AT137">
+        <v>1.6</v>
+      </c>
+      <c r="AU137">
+        <v>1.68</v>
+      </c>
+      <c r="AV137">
+        <v>1.52</v>
+      </c>
+      <c r="AW137">
+        <v>3.2</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>1.56</v>
+      </c>
+      <c r="BC137">
+        <v>2</v>
+      </c>
+      <c r="BD137">
+        <v>2.42</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>4</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>10</v>
+      </c>
+      <c r="BI137">
+        <v>6</v>
+      </c>
+      <c r="BJ137">
+        <v>14</v>
+      </c>
+      <c r="BK137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5121122</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45121.85416666666</v>
+      </c>
+      <c r="F138">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s">
+        <v>79</v>
+      </c>
+      <c r="H138" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P138" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q138">
+        <v>11</v>
+      </c>
+      <c r="R138">
+        <v>2</v>
+      </c>
+      <c r="S138">
+        <v>13</v>
+      </c>
+      <c r="T138">
+        <v>2.88</v>
+      </c>
+      <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>3.75</v>
+      </c>
+      <c r="W138">
+        <v>1.45</v>
+      </c>
+      <c r="X138">
+        <v>2.6</v>
+      </c>
+      <c r="Y138">
+        <v>2.92</v>
+      </c>
+      <c r="Z138">
+        <v>1.32</v>
+      </c>
+      <c r="AA138">
+        <v>6.85</v>
+      </c>
+      <c r="AB138">
+        <v>1.07</v>
+      </c>
+      <c r="AC138">
+        <v>1.97</v>
+      </c>
+      <c r="AD138">
+        <v>3.05</v>
+      </c>
+      <c r="AE138">
+        <v>3.65</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH138">
+        <v>1.32</v>
+      </c>
+      <c r="AI138">
+        <v>2.92</v>
+      </c>
+      <c r="AJ138">
+        <v>2.01</v>
+      </c>
+      <c r="AK138">
+        <v>1.63</v>
+      </c>
+      <c r="AL138">
+        <v>1.85</v>
+      </c>
+      <c r="AM138">
+        <v>1.85</v>
+      </c>
+      <c r="AN138">
+        <v>1.29</v>
+      </c>
+      <c r="AO138">
+        <v>1.3</v>
+      </c>
+      <c r="AP138">
+        <v>1.55</v>
+      </c>
+      <c r="AQ138">
+        <v>1.44</v>
+      </c>
+      <c r="AR138">
+        <v>0.75</v>
+      </c>
+      <c r="AS138">
+        <v>1.4</v>
+      </c>
+      <c r="AT138">
+        <v>0.78</v>
+      </c>
+      <c r="AU138">
+        <v>1.72</v>
+      </c>
+      <c r="AV138">
+        <v>1.23</v>
+      </c>
+      <c r="AW138">
+        <v>2.95</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>1.75</v>
+      </c>
+      <c r="BE138">
+        <v>2.14</v>
+      </c>
+      <c r="BF138">
+        <v>7</v>
+      </c>
+      <c r="BG138">
+        <v>7</v>
+      </c>
+      <c r="BH138">
+        <v>10</v>
+      </c>
+      <c r="BI138">
+        <v>7</v>
+      </c>
+      <c r="BJ138">
+        <v>17</v>
+      </c>
+      <c r="BK138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5121119</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
+        <v>76</v>
+      </c>
+      <c r="H139" t="s">
+        <v>65</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>109</v>
+      </c>
+      <c r="P139" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q139">
+        <v>8</v>
+      </c>
+      <c r="R139">
+        <v>4</v>
+      </c>
+      <c r="S139">
+        <v>12</v>
+      </c>
+      <c r="T139">
+        <v>2.85</v>
+      </c>
+      <c r="U139">
+        <v>2.05</v>
+      </c>
+      <c r="V139">
+        <v>3.75</v>
+      </c>
+      <c r="W139">
+        <v>1.45</v>
+      </c>
+      <c r="X139">
+        <v>2.6</v>
+      </c>
+      <c r="Y139">
+        <v>3</v>
+      </c>
+      <c r="Z139">
+        <v>1.35</v>
+      </c>
+      <c r="AA139">
+        <v>7</v>
+      </c>
+      <c r="AB139">
+        <v>1.07</v>
+      </c>
+      <c r="AC139">
+        <v>2.37</v>
+      </c>
+      <c r="AD139">
+        <v>3.2</v>
+      </c>
+      <c r="AE139">
+        <v>2.9</v>
+      </c>
+      <c r="AF139">
+        <v>1.06</v>
+      </c>
+      <c r="AG139">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH139">
+        <v>1.33</v>
+      </c>
+      <c r="AI139">
+        <v>3.03</v>
+      </c>
+      <c r="AJ139">
+        <v>2.1</v>
+      </c>
+      <c r="AK139">
+        <v>1.62</v>
+      </c>
+      <c r="AL139">
+        <v>1.82</v>
+      </c>
+      <c r="AM139">
+        <v>1.88</v>
+      </c>
+      <c r="AN139">
+        <v>1.32</v>
+      </c>
+      <c r="AO139">
+        <v>1.3</v>
+      </c>
+      <c r="AP139">
+        <v>1.58</v>
+      </c>
+      <c r="AQ139">
+        <v>1.88</v>
+      </c>
+      <c r="AR139">
+        <v>0.75</v>
+      </c>
+      <c r="AS139">
+        <v>1.78</v>
+      </c>
+      <c r="AT139">
+        <v>0.78</v>
+      </c>
+      <c r="AU139">
+        <v>1.89</v>
+      </c>
+      <c r="AV139">
+        <v>1.64</v>
+      </c>
+      <c r="AW139">
+        <v>3.53</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>1.8</v>
+      </c>
+      <c r="BD139">
+        <v>2.15</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>3</v>
+      </c>
+      <c r="BG139">
+        <v>8</v>
+      </c>
+      <c r="BH139">
+        <v>6</v>
+      </c>
+      <c r="BI139">
+        <v>10</v>
+      </c>
+      <c r="BJ139">
+        <v>9</v>
+      </c>
+      <c r="BK139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5121121</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45122.66666666666</v>
+      </c>
+      <c r="F140">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s">
+        <v>67</v>
+      </c>
+      <c r="H140" t="s">
+        <v>69</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>83</v>
+      </c>
+      <c r="P140" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q140">
+        <v>4</v>
+      </c>
+      <c r="R140">
+        <v>5</v>
+      </c>
+      <c r="S140">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>3.2</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
+        <v>3.5</v>
+      </c>
+      <c r="W140">
+        <v>1.5</v>
+      </c>
+      <c r="X140">
+        <v>2.4</v>
+      </c>
+      <c r="Y140">
+        <v>3.25</v>
+      </c>
+      <c r="Z140">
+        <v>1.3</v>
+      </c>
+      <c r="AA140">
+        <v>7.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.05</v>
+      </c>
+      <c r="AC140">
+        <v>2.66</v>
+      </c>
+      <c r="AD140">
+        <v>2.99</v>
+      </c>
+      <c r="AE140">
+        <v>2.66</v>
+      </c>
+      <c r="AF140">
+        <v>1.08</v>
+      </c>
+      <c r="AG140">
+        <v>7.9</v>
+      </c>
+      <c r="AH140">
+        <v>1.4</v>
+      </c>
+      <c r="AI140">
+        <v>2.75</v>
+      </c>
+      <c r="AJ140">
+        <v>2.28</v>
+      </c>
+      <c r="AK140">
+        <v>1.53</v>
+      </c>
+      <c r="AL140">
+        <v>1.9</v>
+      </c>
+      <c r="AM140">
+        <v>1.8</v>
+      </c>
+      <c r="AN140">
+        <v>1.38</v>
+      </c>
+      <c r="AO140">
+        <v>1.35</v>
+      </c>
+      <c r="AP140">
+        <v>1.45</v>
+      </c>
+      <c r="AQ140">
+        <v>0.9</v>
+      </c>
+      <c r="AR140">
+        <v>1.29</v>
+      </c>
+      <c r="AS140">
+        <v>0.82</v>
+      </c>
+      <c r="AT140">
+        <v>1.5</v>
+      </c>
+      <c r="AU140">
+        <v>1.26</v>
+      </c>
+      <c r="AV140">
+        <v>1.43</v>
+      </c>
+      <c r="AW140">
+        <v>2.69</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>1.49</v>
+      </c>
+      <c r="BC140">
+        <v>1.88</v>
+      </c>
+      <c r="BD140">
+        <v>2.25</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>6</v>
+      </c>
+      <c r="BG140">
+        <v>7</v>
+      </c>
+      <c r="BH140">
+        <v>5</v>
+      </c>
+      <c r="BI140">
+        <v>1</v>
+      </c>
+      <c r="BJ140">
+        <v>11</v>
+      </c>
+      <c r="BK140">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5121125</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45122.77083333334</v>
+      </c>
+      <c r="F141">
+        <v>18</v>
+      </c>
+      <c r="G141" t="s">
+        <v>75</v>
+      </c>
+      <c r="H141" t="s">
+        <v>78</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>190</v>
+      </c>
+      <c r="P141" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q141">
+        <v>1</v>
+      </c>
+      <c r="R141">
+        <v>9</v>
+      </c>
+      <c r="S141">
+        <v>10</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2.1</v>
+      </c>
+      <c r="V141">
+        <v>4.33</v>
+      </c>
+      <c r="W141">
+        <v>1.42</v>
+      </c>
+      <c r="X141">
+        <v>2.65</v>
+      </c>
+      <c r="Y141">
+        <v>2.9</v>
+      </c>
+      <c r="Z141">
+        <v>1.35</v>
+      </c>
+      <c r="AA141">
+        <v>6.75</v>
+      </c>
+      <c r="AB141">
+        <v>1.07</v>
+      </c>
+      <c r="AC141">
+        <v>1.86</v>
+      </c>
+      <c r="AD141">
+        <v>3.2</v>
+      </c>
+      <c r="AE141">
+        <v>3.9</v>
+      </c>
+      <c r="AF141">
+        <v>1.06</v>
+      </c>
+      <c r="AG141">
+        <v>10</v>
+      </c>
+      <c r="AH141">
+        <v>1.31</v>
+      </c>
+      <c r="AI141">
+        <v>3.13</v>
+      </c>
+      <c r="AJ141">
+        <v>2.01</v>
+      </c>
+      <c r="AK141">
+        <v>1.63</v>
+      </c>
+      <c r="AL141">
+        <v>1.85</v>
+      </c>
+      <c r="AM141">
+        <v>1.85</v>
+      </c>
+      <c r="AN141">
+        <v>1.2</v>
+      </c>
+      <c r="AO141">
+        <v>1.29</v>
+      </c>
+      <c r="AP141">
+        <v>1.73</v>
+      </c>
+      <c r="AQ141">
+        <v>2.13</v>
+      </c>
+      <c r="AR141">
+        <v>1</v>
+      </c>
+      <c r="AS141">
+        <v>2.22</v>
+      </c>
+      <c r="AT141">
+        <v>0.89</v>
+      </c>
+      <c r="AU141">
+        <v>1.73</v>
+      </c>
+      <c r="AV141">
+        <v>1.42</v>
+      </c>
+      <c r="AW141">
+        <v>3.15</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>1.49</v>
+      </c>
+      <c r="BD141">
+        <v>1.8</v>
+      </c>
+      <c r="BE141">
+        <v>2.2</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>4</v>
+      </c>
+      <c r="BH141">
+        <v>4</v>
+      </c>
+      <c r="BI141">
+        <v>4</v>
+      </c>
+      <c r="BJ141">
+        <v>10</v>
+      </c>
+      <c r="BK141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5121123</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45122.875</v>
+      </c>
+      <c r="F142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>191</v>
+      </c>
+      <c r="P142" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q142">
+        <v>7</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>8</v>
+      </c>
+      <c r="T142">
+        <v>2.55</v>
+      </c>
+      <c r="U142">
+        <v>2.1</v>
+      </c>
+      <c r="V142">
+        <v>4.25</v>
+      </c>
+      <c r="W142">
+        <v>1.42</v>
+      </c>
+      <c r="X142">
+        <v>2.65</v>
+      </c>
+      <c r="Y142">
+        <v>2.9</v>
+      </c>
+      <c r="Z142">
+        <v>1.35</v>
+      </c>
+      <c r="AA142">
+        <v>6.75</v>
+      </c>
+      <c r="AB142">
+        <v>1.07</v>
+      </c>
+      <c r="AC142">
+        <v>1.93</v>
+      </c>
+      <c r="AD142">
+        <v>3.1</v>
+      </c>
+      <c r="AE142">
+        <v>3.75</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>9.85</v>
+      </c>
+      <c r="AH142">
+        <v>1.31</v>
+      </c>
+      <c r="AI142">
+        <v>3.15</v>
+      </c>
+      <c r="AJ142">
+        <v>2.01</v>
+      </c>
+      <c r="AK142">
+        <v>1.63</v>
+      </c>
+      <c r="AL142">
+        <v>1.82</v>
+      </c>
+      <c r="AM142">
+        <v>1.9</v>
+      </c>
+      <c r="AN142">
+        <v>1.24</v>
+      </c>
+      <c r="AO142">
+        <v>1.3</v>
+      </c>
+      <c r="AP142">
+        <v>1.75</v>
+      </c>
+      <c r="AQ142">
+        <v>2.25</v>
+      </c>
+      <c r="AR142">
+        <v>0.44</v>
+      </c>
+      <c r="AS142">
+        <v>2.11</v>
+      </c>
+      <c r="AT142">
+        <v>0.5</v>
+      </c>
+      <c r="AU142">
+        <v>1.81</v>
+      </c>
+      <c r="AV142">
+        <v>0.98</v>
+      </c>
+      <c r="AW142">
+        <v>2.79</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>1.56</v>
+      </c>
+      <c r="BC142">
+        <v>1.93</v>
+      </c>
+      <c r="BD142">
+        <v>2.39</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>6</v>
+      </c>
+      <c r="BG142">
+        <v>7</v>
+      </c>
+      <c r="BH142">
+        <v>13</v>
+      </c>
+      <c r="BI142">
+        <v>5</v>
+      </c>
+      <c r="BJ142">
+        <v>19</v>
+      </c>
+      <c r="BK142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5121120</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45123.66666666666</v>
+      </c>
+      <c r="F143">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s">
+        <v>71</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>2</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>3</v>
+      </c>
+      <c r="O143" t="s">
+        <v>192</v>
+      </c>
+      <c r="P143" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q143">
+        <v>4</v>
+      </c>
+      <c r="R143">
+        <v>6</v>
+      </c>
+      <c r="S143">
+        <v>10</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>2.2</v>
+      </c>
+      <c r="V143">
+        <v>4.75</v>
+      </c>
+      <c r="W143">
+        <v>1.35</v>
+      </c>
+      <c r="X143">
+        <v>2.9</v>
+      </c>
+      <c r="Y143">
+        <v>2.65</v>
+      </c>
+      <c r="Z143">
+        <v>1.42</v>
+      </c>
+      <c r="AA143">
+        <v>6</v>
+      </c>
+      <c r="AB143">
+        <v>1.09</v>
+      </c>
+      <c r="AC143">
+        <v>1.6</v>
+      </c>
+      <c r="AD143">
+        <v>3.7</v>
+      </c>
+      <c r="AE143">
+        <v>5</v>
+      </c>
+      <c r="AF143">
+        <v>1.05</v>
+      </c>
+      <c r="AG143">
+        <v>12.25</v>
+      </c>
+      <c r="AH143">
+        <v>1.25</v>
+      </c>
+      <c r="AI143">
+        <v>3.55</v>
+      </c>
+      <c r="AJ143">
+        <v>1.7</v>
+      </c>
+      <c r="AK143">
+        <v>2</v>
+      </c>
+      <c r="AL143">
+        <v>1.78</v>
+      </c>
+      <c r="AM143">
+        <v>1.95</v>
+      </c>
+      <c r="AN143">
+        <v>1.18</v>
+      </c>
+      <c r="AO143">
+        <v>1.24</v>
+      </c>
+      <c r="AP143">
+        <v>2</v>
+      </c>
+      <c r="AQ143">
+        <v>2.25</v>
+      </c>
+      <c r="AR143">
+        <v>1.6</v>
+      </c>
+      <c r="AS143">
+        <v>2</v>
+      </c>
+      <c r="AT143">
+        <v>1.73</v>
+      </c>
+      <c r="AU143">
+        <v>1.87</v>
+      </c>
+      <c r="AV143">
+        <v>1.74</v>
+      </c>
+      <c r="AW143">
+        <v>3.61</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>1.3</v>
+      </c>
+      <c r="BB143">
+        <v>1.59</v>
+      </c>
+      <c r="BC143">
+        <v>1.95</v>
+      </c>
+      <c r="BD143">
+        <v>2.47</v>
+      </c>
+      <c r="BE143">
+        <v>3.75</v>
+      </c>
+      <c r="BF143">
+        <v>8</v>
+      </c>
+      <c r="BG143">
+        <v>6</v>
+      </c>
+      <c r="BH143">
+        <v>6</v>
+      </c>
+      <c r="BI143">
+        <v>6</v>
+      </c>
+      <c r="BJ143">
+        <v>14</v>
+      </c>
+      <c r="BK143">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -786,6 +786,9 @@
   <si>
     <t>['23', '77']</t>
   </si>
+  <si>
+    <t>['22', '33', '63']</t>
+  </si>
 </sst>
 </file>
 
@@ -1146,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2244,7 +2247,7 @@
         <v>1.7</v>
       </c>
       <c r="AT6">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -3005,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT10">
         <v>1.5</v>
@@ -5873,7 +5876,7 @@
         <v>1.4</v>
       </c>
       <c r="AT25">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6252,7 +6255,7 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>0.89</v>
@@ -8544,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>0.78</v>
@@ -9502,7 +9505,7 @@
         <v>0.82</v>
       </c>
       <c r="AT44">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU44">
         <v>1.12</v>
@@ -11409,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT54">
         <v>0.38</v>
@@ -12558,7 +12561,7 @@
         <v>2</v>
       </c>
       <c r="AT60">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU60">
         <v>1.42</v>
@@ -15041,7 +15044,7 @@
         <v>1.44</v>
       </c>
       <c r="AT73">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU73">
         <v>1.79</v>
@@ -17139,7 +17142,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT84">
         <v>0.5600000000000001</v>
@@ -19052,7 +19055,7 @@
         <v>2.11</v>
       </c>
       <c r="AT94">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19622,7 +19625,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT97">
         <v>1.38</v>
@@ -21917,7 +21920,7 @@
         <v>2.13</v>
       </c>
       <c r="AT109">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU109">
         <v>2.4</v>
@@ -23442,7 +23445,7 @@
         <v>1.25</v>
       </c>
       <c r="AS117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT117">
         <v>1.22</v>
@@ -25161,7 +25164,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>0.78</v>
@@ -27074,7 +27077,7 @@
         <v>1.44</v>
       </c>
       <c r="AT136">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU136">
         <v>1.86</v>
@@ -28462,6 +28465,197 @@
         <v>14</v>
       </c>
       <c r="BK143">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5121124</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45124.90625</v>
+      </c>
+      <c r="F144">
+        <v>18</v>
+      </c>
+      <c r="G144" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s">
+        <v>74</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>83</v>
+      </c>
+      <c r="P144" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q144">
+        <v>7</v>
+      </c>
+      <c r="R144">
+        <v>6</v>
+      </c>
+      <c r="S144">
+        <v>13</v>
+      </c>
+      <c r="T144">
+        <v>2.38</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>5</v>
+      </c>
+      <c r="W144">
+        <v>1.45</v>
+      </c>
+      <c r="X144">
+        <v>2.55</v>
+      </c>
+      <c r="Y144">
+        <v>3.05</v>
+      </c>
+      <c r="Z144">
+        <v>1.32</v>
+      </c>
+      <c r="AA144">
+        <v>7.25</v>
+      </c>
+      <c r="AB144">
+        <v>1.06</v>
+      </c>
+      <c r="AC144">
+        <v>1.77</v>
+      </c>
+      <c r="AD144">
+        <v>3.46</v>
+      </c>
+      <c r="AE144">
+        <v>4.3</v>
+      </c>
+      <c r="AF144">
+        <v>1.06</v>
+      </c>
+      <c r="AG144">
+        <v>9.4</v>
+      </c>
+      <c r="AH144">
+        <v>1.36</v>
+      </c>
+      <c r="AI144">
+        <v>2.9</v>
+      </c>
+      <c r="AJ144">
+        <v>2.05</v>
+      </c>
+      <c r="AK144">
+        <v>1.61</v>
+      </c>
+      <c r="AL144">
+        <v>2.1</v>
+      </c>
+      <c r="AM144">
+        <v>1.68</v>
+      </c>
+      <c r="AN144">
+        <v>1.15</v>
+      </c>
+      <c r="AO144">
+        <v>1.24</v>
+      </c>
+      <c r="AP144">
+        <v>2.1</v>
+      </c>
+      <c r="AQ144">
+        <v>2.25</v>
+      </c>
+      <c r="AR144">
+        <v>0.88</v>
+      </c>
+      <c r="AS144">
+        <v>2</v>
+      </c>
+      <c r="AT144">
+        <v>1.11</v>
+      </c>
+      <c r="AU144">
+        <v>1.8</v>
+      </c>
+      <c r="AV144">
+        <v>1.45</v>
+      </c>
+      <c r="AW144">
+        <v>3.25</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>1.28</v>
+      </c>
+      <c r="BC144">
+        <v>1.56</v>
+      </c>
+      <c r="BD144">
+        <v>1.98</v>
+      </c>
+      <c r="BE144">
+        <v>2.37</v>
+      </c>
+      <c r="BF144">
+        <v>4</v>
+      </c>
+      <c r="BG144">
+        <v>7</v>
+      </c>
+      <c r="BH144">
+        <v>7</v>
+      </c>
+      <c r="BI144">
+        <v>5</v>
+      </c>
+      <c r="BJ144">
+        <v>11</v>
+      </c>
+      <c r="BK144">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,21 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['59', '90+4']</t>
+  </si>
+  <si>
+    <t>['39', '52', '90']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['8', '29', '38', '90+8']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -697,9 +712,6 @@
     <t>['73', '80']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -788,6 +800,18 @@
   </si>
   <si>
     <t>['22', '33', '63']</t>
+  </si>
+  <si>
+    <t>['2', '26', '87']</t>
+  </si>
+  <si>
+    <t>['14', '52']</t>
+  </si>
+  <si>
+    <t>['40', '59']</t>
+  </si>
+  <si>
+    <t>['83', '85']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK144"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1417,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1480,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT2">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1671,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT3">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2053,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2435,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2539,7 +2563,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2626,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT8">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2730,7 +2754,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -3011,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="AT10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3112,7 +3136,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3390,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT12">
         <v>0.78</v>
@@ -3963,10 +3987,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT15">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU15">
         <v>1.4</v>
@@ -4067,7 +4091,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4154,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT16">
         <v>1.11</v>
@@ -4348,7 +4372,7 @@
         <v>1.7</v>
       </c>
       <c r="AT17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU17">
         <v>2.15</v>
@@ -4449,7 +4473,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4536,10 +4560,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT18">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -4640,7 +4664,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4730,7 +4754,7 @@
         <v>1.11</v>
       </c>
       <c r="AT19">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU19">
         <v>1.87</v>
@@ -4831,7 +4855,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4918,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT20">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU20">
         <v>2.07</v>
@@ -5022,7 +5046,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5109,10 +5133,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU21">
         <v>2.35</v>
@@ -5213,7 +5237,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5300,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT22">
         <v>0.38</v>
@@ -5404,7 +5428,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5595,7 +5619,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -6932,7 +6956,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7019,10 +7043,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT31">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU31">
         <v>1.25</v>
@@ -7210,10 +7234,10 @@
         <v>3</v>
       </c>
       <c r="AS32">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT32">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU32">
         <v>2.19</v>
@@ -7401,10 +7425,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT33">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU33">
         <v>1.66</v>
@@ -7505,7 +7529,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7592,10 +7616,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU34">
         <v>1.97</v>
@@ -7696,7 +7720,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7783,7 +7807,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT35">
         <v>1.73</v>
@@ -7887,7 +7911,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7974,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT36">
         <v>0.38</v>
@@ -8168,7 +8192,7 @@
         <v>2.11</v>
       </c>
       <c r="AT37">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU37">
         <v>1.99</v>
@@ -8359,7 +8383,7 @@
         <v>1.11</v>
       </c>
       <c r="AT38">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU38">
         <v>1.85</v>
@@ -8842,7 +8866,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8929,7 +8953,7 @@
         <v>1.33</v>
       </c>
       <c r="AS41">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
         <v>1.11</v>
@@ -9224,7 +9248,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9415,7 +9439,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9696,7 +9720,7 @@
         <v>2.11</v>
       </c>
       <c r="AT45">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU45">
         <v>1.84</v>
@@ -9797,7 +9821,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9988,7 +10012,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10075,10 +10099,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU47">
         <v>1.61</v>
@@ -10179,7 +10203,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10266,7 +10290,7 @@
         <v>0.75</v>
       </c>
       <c r="AS48">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT48">
         <v>1.73</v>
@@ -10460,7 +10484,7 @@
         <v>2.11</v>
       </c>
       <c r="AT49">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU49">
         <v>1.87</v>
@@ -10561,7 +10585,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10648,10 +10672,10 @@
         <v>1</v>
       </c>
       <c r="AS50">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT50">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU50">
         <v>1.94</v>
@@ -11030,10 +11054,10 @@
         <v>0</v>
       </c>
       <c r="AS52">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>1.76</v>
@@ -11134,7 +11158,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11221,10 +11245,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT53">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU53">
         <v>1.61</v>
@@ -11603,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="AS55">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT55">
         <v>0.38</v>
@@ -11707,7 +11731,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11794,10 +11818,10 @@
         <v>0.25</v>
       </c>
       <c r="AS56">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT56">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU56">
         <v>1.91</v>
@@ -11898,7 +11922,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11985,7 +12009,7 @@
         <v>1.67</v>
       </c>
       <c r="AS57">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT57">
         <v>1.6</v>
@@ -12179,7 +12203,7 @@
         <v>0.82</v>
       </c>
       <c r="AT58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU58">
         <v>1.03</v>
@@ -12370,7 +12394,7 @@
         <v>1.4</v>
       </c>
       <c r="AT59">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU59">
         <v>1.68</v>
@@ -12940,7 +12964,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT62">
         <v>1.11</v>
@@ -13044,7 +13068,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13131,7 +13155,7 @@
         <v>0.5</v>
       </c>
       <c r="AS63">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT63">
         <v>0.78</v>
@@ -13325,7 +13349,7 @@
         <v>2.11</v>
       </c>
       <c r="AT64">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU64">
         <v>1.94</v>
@@ -13707,7 +13731,7 @@
         <v>1.78</v>
       </c>
       <c r="AT66">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU66">
         <v>1.83</v>
@@ -13808,7 +13832,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -13895,7 +13919,7 @@
         <v>1.2</v>
       </c>
       <c r="AS67">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
         <v>1.73</v>
@@ -13999,7 +14023,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14089,7 +14113,7 @@
         <v>0.82</v>
       </c>
       <c r="AT68">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU68">
         <v>1.09</v>
@@ -14190,7 +14214,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14277,10 +14301,10 @@
         <v>0.25</v>
       </c>
       <c r="AS69">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT69">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU69">
         <v>1.89</v>
@@ -14572,7 +14596,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14659,7 +14683,7 @@
         <v>0.33</v>
       </c>
       <c r="AS71">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT71">
         <v>0.5</v>
@@ -14763,7 +14787,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14853,7 +14877,7 @@
         <v>1.4</v>
       </c>
       <c r="AT72">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU72">
         <v>1.68</v>
@@ -15041,7 +15065,7 @@
         <v>1.75</v>
       </c>
       <c r="AS73">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT73">
         <v>1.11</v>
@@ -15808,7 +15832,7 @@
         <v>1.78</v>
       </c>
       <c r="AT77">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -15996,10 +16020,10 @@
         <v>1.8</v>
       </c>
       <c r="AS78">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT78">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU78">
         <v>1.65</v>
@@ -16187,7 +16211,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT79">
         <v>1.6</v>
@@ -16673,7 +16697,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16763,7 +16787,7 @@
         <v>1.7</v>
       </c>
       <c r="AT82">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU82">
         <v>1.74</v>
@@ -16951,10 +16975,10 @@
         <v>1.4</v>
       </c>
       <c r="AS83">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT83">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU83">
         <v>1.79</v>
@@ -17055,7 +17079,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17145,7 +17169,7 @@
         <v>2</v>
       </c>
       <c r="AT84">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU84">
         <v>1.77</v>
@@ -17333,7 +17357,7 @@
         <v>0.75</v>
       </c>
       <c r="AS85">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT85">
         <v>0.78</v>
@@ -17437,7 +17461,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17524,7 +17548,7 @@
         <v>1.2</v>
       </c>
       <c r="AS86">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT86">
         <v>1.6</v>
@@ -17628,7 +17652,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17718,7 +17742,7 @@
         <v>1.4</v>
       </c>
       <c r="AT87">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -17819,7 +17843,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18100,7 +18124,7 @@
         <v>2.11</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU89">
         <v>1.61</v>
@@ -18288,7 +18312,7 @@
         <v>1.6</v>
       </c>
       <c r="AS90">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT90">
         <v>0.89</v>
@@ -18392,7 +18416,7 @@
         <v>150</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="Q91">
         <v>4</v>
@@ -18479,7 +18503,7 @@
         <v>0</v>
       </c>
       <c r="AS91">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT91">
         <v>0.38</v>
@@ -18774,7 +18798,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18864,7 +18888,7 @@
         <v>2</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU93">
         <v>1.63</v>
@@ -18965,7 +18989,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19156,7 +19180,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19243,10 +19267,10 @@
         <v>1.67</v>
       </c>
       <c r="AS95">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT95">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU95">
         <v>2.22</v>
@@ -19347,7 +19371,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19434,7 +19458,7 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT96">
         <v>0.78</v>
@@ -19538,7 +19562,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19628,7 +19652,7 @@
         <v>2</v>
       </c>
       <c r="AT97">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU97">
         <v>1.71</v>
@@ -19729,7 +19753,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19819,7 +19843,7 @@
         <v>0.82</v>
       </c>
       <c r="AT98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU98">
         <v>1.23</v>
@@ -20007,7 +20031,7 @@
         <v>1.71</v>
       </c>
       <c r="AS99">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
         <v>1.73</v>
@@ -20198,7 +20222,7 @@
         <v>1.33</v>
       </c>
       <c r="AS100">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT100">
         <v>1.11</v>
@@ -20302,7 +20326,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20389,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT101">
         <v>1.6</v>
@@ -20493,7 +20517,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20583,7 +20607,7 @@
         <v>1.7</v>
       </c>
       <c r="AT102">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU102">
         <v>1.71</v>
@@ -20774,7 +20798,7 @@
         <v>1.11</v>
       </c>
       <c r="AT103">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU103">
         <v>1.66</v>
@@ -21066,7 +21090,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21156,7 +21180,7 @@
         <v>1.78</v>
       </c>
       <c r="AT105">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU105">
         <v>1.65</v>
@@ -21257,7 +21281,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21344,7 +21368,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT106">
         <v>0.78</v>
@@ -21448,7 +21472,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21535,10 +21559,10 @@
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.89</v>
@@ -21917,7 +21941,7 @@
         <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT109">
         <v>1.11</v>
@@ -22021,7 +22045,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22111,7 +22135,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU110">
         <v>1.69</v>
@@ -22212,7 +22236,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22299,7 +22323,7 @@
         <v>0</v>
       </c>
       <c r="AS111">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT111">
         <v>0.38</v>
@@ -22403,7 +22427,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22490,10 +22514,10 @@
         <v>1.43</v>
       </c>
       <c r="AS112">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT112">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU112">
         <v>1.71</v>
@@ -22594,7 +22618,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22684,7 +22708,7 @@
         <v>2.11</v>
       </c>
       <c r="AT113">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU113">
         <v>1.66</v>
@@ -22785,7 +22809,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -23063,7 +23087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS115">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT115">
         <v>0.89</v>
@@ -23167,7 +23191,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23257,7 +23281,7 @@
         <v>1.4</v>
       </c>
       <c r="AT116">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU116">
         <v>1.6</v>
@@ -23358,7 +23382,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23448,7 +23472,7 @@
         <v>2</v>
       </c>
       <c r="AT117">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU117">
         <v>1.7</v>
@@ -23636,7 +23660,7 @@
         <v>0.29</v>
       </c>
       <c r="AS118">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT118">
         <v>0.5</v>
@@ -23740,7 +23764,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23931,7 +23955,7 @@
         <v>128</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24212,7 +24236,7 @@
         <v>1.4</v>
       </c>
       <c r="AT121">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU121">
         <v>1.67</v>
@@ -24313,7 +24337,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24504,7 +24528,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24594,7 +24618,7 @@
         <v>1.11</v>
       </c>
       <c r="AT123">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>1.74</v>
@@ -24886,7 +24910,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -24973,10 +24997,10 @@
         <v>0.67</v>
       </c>
       <c r="AS125">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU125">
         <v>1.8</v>
@@ -25268,7 +25292,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25459,7 +25483,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25650,7 +25674,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25928,10 +25952,10 @@
         <v>0.38</v>
       </c>
       <c r="AS130">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AT130">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU130">
         <v>2.4</v>
@@ -26032,7 +26056,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26310,10 +26334,10 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT132">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU132">
         <v>1.66</v>
@@ -26414,7 +26438,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26504,7 +26528,7 @@
         <v>1.7</v>
       </c>
       <c r="AT133">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU133">
         <v>1.82</v>
@@ -26605,7 +26629,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26796,7 +26820,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26883,7 +26907,7 @@
         <v>1.13</v>
       </c>
       <c r="AS135">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT135">
         <v>1.11</v>
@@ -26987,7 +27011,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27074,7 +27098,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT136">
         <v>1.11</v>
@@ -27178,7 +27202,7 @@
         <v>83</v>
       </c>
       <c r="P137" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27751,7 +27775,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27841,7 +27865,7 @@
         <v>0.82</v>
       </c>
       <c r="AT140">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>1.26</v>
@@ -28029,7 +28053,7 @@
         <v>1</v>
       </c>
       <c r="AS141">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AT141">
         <v>0.89</v>
@@ -28133,7 +28157,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -28324,7 +28348,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28515,7 +28539,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28657,6 +28681,1343 @@
       </c>
       <c r="BK144">
         <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5121131</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45128.89583333334</v>
+      </c>
+      <c r="F145">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>66</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145" t="s">
+        <v>193</v>
+      </c>
+      <c r="P145" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q145">
+        <v>5</v>
+      </c>
+      <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145">
+        <v>9</v>
+      </c>
+      <c r="T145">
+        <v>2.29</v>
+      </c>
+      <c r="U145">
+        <v>2.4</v>
+      </c>
+      <c r="V145">
+        <v>4.24</v>
+      </c>
+      <c r="W145">
+        <v>1.3</v>
+      </c>
+      <c r="X145">
+        <v>3.22</v>
+      </c>
+      <c r="Y145">
+        <v>2.54</v>
+      </c>
+      <c r="Z145">
+        <v>1.45</v>
+      </c>
+      <c r="AA145">
+        <v>5.6</v>
+      </c>
+      <c r="AB145">
+        <v>1.11</v>
+      </c>
+      <c r="AC145">
+        <v>1.77</v>
+      </c>
+      <c r="AD145">
+        <v>3.2</v>
+      </c>
+      <c r="AE145">
+        <v>4.1</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>16</v>
+      </c>
+      <c r="AH145">
+        <v>1.19</v>
+      </c>
+      <c r="AI145">
+        <v>4.13</v>
+      </c>
+      <c r="AJ145">
+        <v>1.51</v>
+      </c>
+      <c r="AK145">
+        <v>2.28</v>
+      </c>
+      <c r="AL145">
+        <v>1.61</v>
+      </c>
+      <c r="AM145">
+        <v>2.25</v>
+      </c>
+      <c r="AN145">
+        <v>1.2</v>
+      </c>
+      <c r="AO145">
+        <v>1.27</v>
+      </c>
+      <c r="AP145">
+        <v>1.75</v>
+      </c>
+      <c r="AQ145">
+        <v>2.13</v>
+      </c>
+      <c r="AR145">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS145">
+        <v>1.89</v>
+      </c>
+      <c r="AT145">
+        <v>0.8</v>
+      </c>
+      <c r="AU145">
+        <v>2.32</v>
+      </c>
+      <c r="AV145">
+        <v>1.68</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>1.48</v>
+      </c>
+      <c r="BD145">
+        <v>1.75</v>
+      </c>
+      <c r="BE145">
+        <v>2.14</v>
+      </c>
+      <c r="BF145">
+        <v>7</v>
+      </c>
+      <c r="BG145">
+        <v>11</v>
+      </c>
+      <c r="BH145">
+        <v>8</v>
+      </c>
+      <c r="BI145">
+        <v>7</v>
+      </c>
+      <c r="BJ145">
+        <v>15</v>
+      </c>
+      <c r="BK145">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5121126</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45129.5625</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>71</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>194</v>
+      </c>
+      <c r="P146" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>7</v>
+      </c>
+      <c r="T146">
+        <v>2.88</v>
+      </c>
+      <c r="U146">
+        <v>2.05</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.39</v>
+      </c>
+      <c r="X146">
+        <v>3</v>
+      </c>
+      <c r="Y146">
+        <v>2.59</v>
+      </c>
+      <c r="Z146">
+        <v>1.4</v>
+      </c>
+      <c r="AA146">
+        <v>5.85</v>
+      </c>
+      <c r="AB146">
+        <v>1.1</v>
+      </c>
+      <c r="AC146">
+        <v>2.19</v>
+      </c>
+      <c r="AD146">
+        <v>3.36</v>
+      </c>
+      <c r="AE146">
+        <v>3.08</v>
+      </c>
+      <c r="AF146">
+        <v>1.04</v>
+      </c>
+      <c r="AG146">
+        <v>8.5</v>
+      </c>
+      <c r="AH146">
+        <v>1.24</v>
+      </c>
+      <c r="AI146">
+        <v>3.5</v>
+      </c>
+      <c r="AJ146">
+        <v>1.92</v>
+      </c>
+      <c r="AK146">
+        <v>1.86</v>
+      </c>
+      <c r="AL146">
+        <v>1.68</v>
+      </c>
+      <c r="AM146">
+        <v>2.1</v>
+      </c>
+      <c r="AN146">
+        <v>1.32</v>
+      </c>
+      <c r="AO146">
+        <v>1.32</v>
+      </c>
+      <c r="AP146">
+        <v>1.58</v>
+      </c>
+      <c r="AQ146">
+        <v>1.43</v>
+      </c>
+      <c r="AR146">
+        <v>0.33</v>
+      </c>
+      <c r="AS146">
+        <v>1.63</v>
+      </c>
+      <c r="AT146">
+        <v>0.3</v>
+      </c>
+      <c r="AU146">
+        <v>1.67</v>
+      </c>
+      <c r="AV146">
+        <v>1.51</v>
+      </c>
+      <c r="AW146">
+        <v>3.18</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>9</v>
+      </c>
+      <c r="BG146">
+        <v>3</v>
+      </c>
+      <c r="BH146">
+        <v>11</v>
+      </c>
+      <c r="BI146">
+        <v>11</v>
+      </c>
+      <c r="BJ146">
+        <v>20</v>
+      </c>
+      <c r="BK146">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5121129</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45129.5625</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>77</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>195</v>
+      </c>
+      <c r="P147" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q147">
+        <v>8</v>
+      </c>
+      <c r="R147">
+        <v>4</v>
+      </c>
+      <c r="S147">
+        <v>12</v>
+      </c>
+      <c r="T147">
+        <v>2.88</v>
+      </c>
+      <c r="U147">
+        <v>1.95</v>
+      </c>
+      <c r="V147">
+        <v>3.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>2.75</v>
+      </c>
+      <c r="Y147">
+        <v>2.8</v>
+      </c>
+      <c r="Z147">
+        <v>1.38</v>
+      </c>
+      <c r="AA147">
+        <v>7.4</v>
+      </c>
+      <c r="AB147">
+        <v>1.06</v>
+      </c>
+      <c r="AC147">
+        <v>2.39</v>
+      </c>
+      <c r="AD147">
+        <v>2.95</v>
+      </c>
+      <c r="AE147">
+        <v>2.9</v>
+      </c>
+      <c r="AF147">
+        <v>1.04</v>
+      </c>
+      <c r="AG147">
+        <v>8.5</v>
+      </c>
+      <c r="AH147">
+        <v>1.3</v>
+      </c>
+      <c r="AI147">
+        <v>3.2</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.69</v>
+      </c>
+      <c r="AL147">
+        <v>1.75</v>
+      </c>
+      <c r="AM147">
+        <v>2</v>
+      </c>
+      <c r="AN147">
+        <v>1.35</v>
+      </c>
+      <c r="AO147">
+        <v>1.35</v>
+      </c>
+      <c r="AP147">
+        <v>1.5</v>
+      </c>
+      <c r="AQ147">
+        <v>2.22</v>
+      </c>
+      <c r="AR147">
+        <v>1.38</v>
+      </c>
+      <c r="AS147">
+        <v>2</v>
+      </c>
+      <c r="AT147">
+        <v>1.56</v>
+      </c>
+      <c r="AU147">
+        <v>1.7</v>
+      </c>
+      <c r="AV147">
+        <v>1.35</v>
+      </c>
+      <c r="AW147">
+        <v>3.05</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>1.59</v>
+      </c>
+      <c r="BC147">
+        <v>1.95</v>
+      </c>
+      <c r="BD147">
+        <v>2.47</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>6</v>
+      </c>
+      <c r="BG147">
+        <v>7</v>
+      </c>
+      <c r="BH147">
+        <v>16</v>
+      </c>
+      <c r="BI147">
+        <v>3</v>
+      </c>
+      <c r="BJ147">
+        <v>22</v>
+      </c>
+      <c r="BK147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5121130</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" t="s">
+        <v>69</v>
+      </c>
+      <c r="I148">
+        <v>3</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>5</v>
+      </c>
+      <c r="O148" t="s">
+        <v>196</v>
+      </c>
+      <c r="P148" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q148">
+        <v>5</v>
+      </c>
+      <c r="R148">
+        <v>14</v>
+      </c>
+      <c r="S148">
+        <v>19</v>
+      </c>
+      <c r="T148">
+        <v>3.5</v>
+      </c>
+      <c r="U148">
+        <v>1.95</v>
+      </c>
+      <c r="V148">
+        <v>3.2</v>
+      </c>
+      <c r="W148">
+        <v>1.48</v>
+      </c>
+      <c r="X148">
+        <v>2.45</v>
+      </c>
+      <c r="Y148">
+        <v>3.2</v>
+      </c>
+      <c r="Z148">
+        <v>1.3</v>
+      </c>
+      <c r="AA148">
+        <v>7.5</v>
+      </c>
+      <c r="AB148">
+        <v>1.06</v>
+      </c>
+      <c r="AC148">
+        <v>2.84</v>
+      </c>
+      <c r="AD148">
+        <v>3.18</v>
+      </c>
+      <c r="AE148">
+        <v>2.43</v>
+      </c>
+      <c r="AF148">
+        <v>1.07</v>
+      </c>
+      <c r="AG148">
+        <v>8.75</v>
+      </c>
+      <c r="AH148">
+        <v>1.38</v>
+      </c>
+      <c r="AI148">
+        <v>2.8</v>
+      </c>
+      <c r="AJ148">
+        <v>2.19</v>
+      </c>
+      <c r="AK148">
+        <v>1.66</v>
+      </c>
+      <c r="AL148">
+        <v>1.9</v>
+      </c>
+      <c r="AM148">
+        <v>1.8</v>
+      </c>
+      <c r="AN148">
+        <v>1.49</v>
+      </c>
+      <c r="AO148">
+        <v>1.31</v>
+      </c>
+      <c r="AP148">
+        <v>1.37</v>
+      </c>
+      <c r="AQ148">
+        <v>1.44</v>
+      </c>
+      <c r="AR148">
+        <v>1.5</v>
+      </c>
+      <c r="AS148">
+        <v>1.6</v>
+      </c>
+      <c r="AT148">
+        <v>1.33</v>
+      </c>
+      <c r="AU148">
+        <v>1.99</v>
+      </c>
+      <c r="AV148">
+        <v>1.41</v>
+      </c>
+      <c r="AW148">
+        <v>3.4</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>1.54</v>
+      </c>
+      <c r="BD148">
+        <v>1.95</v>
+      </c>
+      <c r="BE148">
+        <v>2.32</v>
+      </c>
+      <c r="BF148">
+        <v>7</v>
+      </c>
+      <c r="BG148">
+        <v>9</v>
+      </c>
+      <c r="BH148">
+        <v>4</v>
+      </c>
+      <c r="BI148">
+        <v>9</v>
+      </c>
+      <c r="BJ148">
+        <v>11</v>
+      </c>
+      <c r="BK148">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5121127</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45130.5625</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>70</v>
+      </c>
+      <c r="H149" t="s">
+        <v>80</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>161</v>
+      </c>
+      <c r="P149" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q149">
+        <v>5</v>
+      </c>
+      <c r="R149">
+        <v>3</v>
+      </c>
+      <c r="S149">
+        <v>8</v>
+      </c>
+      <c r="T149">
+        <v>3.6</v>
+      </c>
+      <c r="U149">
+        <v>2.1</v>
+      </c>
+      <c r="V149">
+        <v>2.88</v>
+      </c>
+      <c r="W149">
+        <v>1.38</v>
+      </c>
+      <c r="X149">
+        <v>2.8</v>
+      </c>
+      <c r="Y149">
+        <v>2.52</v>
+      </c>
+      <c r="Z149">
+        <v>1.42</v>
+      </c>
+      <c r="AA149">
+        <v>5.85</v>
+      </c>
+      <c r="AB149">
+        <v>1.1</v>
+      </c>
+      <c r="AC149">
+        <v>3.02</v>
+      </c>
+      <c r="AD149">
+        <v>3.25</v>
+      </c>
+      <c r="AE149">
+        <v>2.1</v>
+      </c>
+      <c r="AF149">
+        <v>1.02</v>
+      </c>
+      <c r="AG149">
+        <v>12.25</v>
+      </c>
+      <c r="AH149">
+        <v>1.29</v>
+      </c>
+      <c r="AI149">
+        <v>3.15</v>
+      </c>
+      <c r="AJ149">
+        <v>1.88</v>
+      </c>
+      <c r="AK149">
+        <v>1.78</v>
+      </c>
+      <c r="AL149">
+        <v>1.63</v>
+      </c>
+      <c r="AM149">
+        <v>2.2</v>
+      </c>
+      <c r="AN149">
+        <v>1.6</v>
+      </c>
+      <c r="AO149">
+        <v>1.25</v>
+      </c>
+      <c r="AP149">
+        <v>1.3</v>
+      </c>
+      <c r="AQ149">
+        <v>1.71</v>
+      </c>
+      <c r="AR149">
+        <v>1.22</v>
+      </c>
+      <c r="AS149">
+        <v>1.5</v>
+      </c>
+      <c r="AT149">
+        <v>1.4</v>
+      </c>
+      <c r="AU149">
+        <v>1.7</v>
+      </c>
+      <c r="AV149">
+        <v>1.35</v>
+      </c>
+      <c r="AW149">
+        <v>3.05</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>1.57</v>
+      </c>
+      <c r="BC149">
+        <v>1.93</v>
+      </c>
+      <c r="BD149">
+        <v>2.42</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>9</v>
+      </c>
+      <c r="BG149">
+        <v>6</v>
+      </c>
+      <c r="BH149">
+        <v>6</v>
+      </c>
+      <c r="BI149">
+        <v>5</v>
+      </c>
+      <c r="BJ149">
+        <v>15</v>
+      </c>
+      <c r="BK149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5121133</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45130.5625</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>65</v>
+      </c>
+      <c r="H150" t="s">
+        <v>67</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>197</v>
+      </c>
+      <c r="P150" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q150">
+        <v>4</v>
+      </c>
+      <c r="R150">
+        <v>4</v>
+      </c>
+      <c r="S150">
+        <v>8</v>
+      </c>
+      <c r="T150">
+        <v>1.95</v>
+      </c>
+      <c r="U150">
+        <v>2.1</v>
+      </c>
+      <c r="V150">
+        <v>8</v>
+      </c>
+      <c r="W150">
+        <v>1.45</v>
+      </c>
+      <c r="X150">
+        <v>2.6</v>
+      </c>
+      <c r="Y150">
+        <v>3.05</v>
+      </c>
+      <c r="Z150">
+        <v>1.32</v>
+      </c>
+      <c r="AA150">
+        <v>7.25</v>
+      </c>
+      <c r="AB150">
+        <v>1.06</v>
+      </c>
+      <c r="AC150">
+        <v>1.41</v>
+      </c>
+      <c r="AD150">
+        <v>3.7</v>
+      </c>
+      <c r="AE150">
+        <v>7.38</v>
+      </c>
+      <c r="AF150">
+        <v>1.07</v>
+      </c>
+      <c r="AG150">
+        <v>8.85</v>
+      </c>
+      <c r="AH150">
+        <v>1.34</v>
+      </c>
+      <c r="AI150">
+        <v>2.82</v>
+      </c>
+      <c r="AJ150">
+        <v>2.04</v>
+      </c>
+      <c r="AK150">
+        <v>1.66</v>
+      </c>
+      <c r="AL150">
+        <v>2.3</v>
+      </c>
+      <c r="AM150">
+        <v>1.55</v>
+      </c>
+      <c r="AN150">
+        <v>1.09</v>
+      </c>
+      <c r="AO150">
+        <v>1.22</v>
+      </c>
+      <c r="AP150">
+        <v>2.15</v>
+      </c>
+      <c r="AQ150">
+        <v>2.33</v>
+      </c>
+      <c r="AR150">
+        <v>1</v>
+      </c>
+      <c r="AS150">
+        <v>2.4</v>
+      </c>
+      <c r="AT150">
+        <v>0.88</v>
+      </c>
+      <c r="AU150">
+        <v>1.98</v>
+      </c>
+      <c r="AV150">
+        <v>1.25</v>
+      </c>
+      <c r="AW150">
+        <v>3.23</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>1.7</v>
+      </c>
+      <c r="BD150">
+        <v>2.1</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>2</v>
+      </c>
+      <c r="BH150">
+        <v>5</v>
+      </c>
+      <c r="BI150">
+        <v>8</v>
+      </c>
+      <c r="BJ150">
+        <v>10</v>
+      </c>
+      <c r="BK150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5121128</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>83</v>
+      </c>
+      <c r="P151" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q151">
+        <v>7</v>
+      </c>
+      <c r="R151">
+        <v>4</v>
+      </c>
+      <c r="S151">
+        <v>11</v>
+      </c>
+      <c r="T151">
+        <v>3.25</v>
+      </c>
+      <c r="U151">
+        <v>2.05</v>
+      </c>
+      <c r="V151">
+        <v>3.1</v>
+      </c>
+      <c r="W151">
+        <v>1.38</v>
+      </c>
+      <c r="X151">
+        <v>2.8</v>
+      </c>
+      <c r="Y151">
+        <v>2.7</v>
+      </c>
+      <c r="Z151">
+        <v>1.4</v>
+      </c>
+      <c r="AA151">
+        <v>6.25</v>
+      </c>
+      <c r="AB151">
+        <v>1.09</v>
+      </c>
+      <c r="AC151">
+        <v>2.63</v>
+      </c>
+      <c r="AD151">
+        <v>3.2</v>
+      </c>
+      <c r="AE151">
+        <v>2.37</v>
+      </c>
+      <c r="AF151">
+        <v>1.05</v>
+      </c>
+      <c r="AG151">
+        <v>11.5</v>
+      </c>
+      <c r="AH151">
+        <v>1.27</v>
+      </c>
+      <c r="AI151">
+        <v>3.45</v>
+      </c>
+      <c r="AJ151">
+        <v>1.92</v>
+      </c>
+      <c r="AK151">
+        <v>1.75</v>
+      </c>
+      <c r="AL151">
+        <v>1.68</v>
+      </c>
+      <c r="AM151">
+        <v>2.05</v>
+      </c>
+      <c r="AN151">
+        <v>1.5</v>
+      </c>
+      <c r="AO151">
+        <v>1.29</v>
+      </c>
+      <c r="AP151">
+        <v>1.4</v>
+      </c>
+      <c r="AQ151">
+        <v>1.44</v>
+      </c>
+      <c r="AR151">
+        <v>1.44</v>
+      </c>
+      <c r="AS151">
+        <v>1.3</v>
+      </c>
+      <c r="AT151">
+        <v>1.6</v>
+      </c>
+      <c r="AU151">
+        <v>1.84</v>
+      </c>
+      <c r="AV151">
+        <v>1.53</v>
+      </c>
+      <c r="AW151">
+        <v>3.37</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>1.52</v>
+      </c>
+      <c r="BD151">
+        <v>1.85</v>
+      </c>
+      <c r="BE151">
+        <v>2.28</v>
+      </c>
+      <c r="BF151">
+        <v>5</v>
+      </c>
+      <c r="BG151">
+        <v>5</v>
+      </c>
+      <c r="BH151">
+        <v>5</v>
+      </c>
+      <c r="BI151">
+        <v>3</v>
+      </c>
+      <c r="BJ151">
+        <v>10</v>
+      </c>
+      <c r="BK151">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1173,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT11">
         <v>0.89</v>
@@ -4751,7 +4751,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT19">
         <v>1.6</v>
@@ -5327,7 +5327,7 @@
         <v>1.6</v>
       </c>
       <c r="AT22">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU22">
         <v>1.2</v>
@@ -8001,7 +8001,7 @@
         <v>2.4</v>
       </c>
       <c r="AT36">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU36">
         <v>1.91</v>
@@ -8380,7 +8380,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT38">
         <v>0.8</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT51">
         <v>0.5</v>
@@ -11439,7 +11439,7 @@
         <v>2</v>
       </c>
       <c r="AT54">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU54">
         <v>1.87</v>
@@ -11630,7 +11630,7 @@
         <v>1.3</v>
       </c>
       <c r="AT55">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU55">
         <v>1.75</v>
@@ -14492,7 +14492,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT70">
         <v>0.78</v>
@@ -16405,7 +16405,7 @@
         <v>2.11</v>
       </c>
       <c r="AT80">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU80">
         <v>1.61</v>
@@ -17930,7 +17930,7 @@
         <v>1.5</v>
       </c>
       <c r="AS88">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT88">
         <v>1.73</v>
@@ -18506,7 +18506,7 @@
         <v>2</v>
       </c>
       <c r="AT91">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU91">
         <v>1.99</v>
@@ -20795,7 +20795,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT103">
         <v>0.3</v>
@@ -22326,7 +22326,7 @@
         <v>1.63</v>
       </c>
       <c r="AT111">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT120">
         <v>1.11</v>
@@ -24615,7 +24615,7 @@
         <v>1</v>
       </c>
       <c r="AS123">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT123">
         <v>1.33</v>
@@ -26146,7 +26146,7 @@
         <v>0.82</v>
       </c>
       <c r="AT131">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU131">
         <v>1.27</v>
@@ -30005,7 +30005,7 @@
         <v>5</v>
       </c>
       <c r="BG151">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BH151">
         <v>5</v>
@@ -30017,7 +30017,198 @@
         <v>10</v>
       </c>
       <c r="BK151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5121132</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45131.79166666666</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>178</v>
+      </c>
+      <c r="P152" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q152">
+        <v>1</v>
+      </c>
+      <c r="R152">
+        <v>6</v>
+      </c>
+      <c r="S152">
+        <v>7</v>
+      </c>
+      <c r="T152">
+        <v>2.88</v>
+      </c>
+      <c r="U152">
+        <v>2.05</v>
+      </c>
+      <c r="V152">
+        <v>3.75</v>
+      </c>
+      <c r="W152">
+        <v>1.42</v>
+      </c>
+      <c r="X152">
+        <v>2.65</v>
+      </c>
+      <c r="Y152">
+        <v>2.9</v>
+      </c>
+      <c r="Z152">
+        <v>1.35</v>
+      </c>
+      <c r="AA152">
+        <v>6.75</v>
+      </c>
+      <c r="AB152">
+        <v>1.07</v>
+      </c>
+      <c r="AC152">
+        <v>2.4</v>
+      </c>
+      <c r="AD152">
+        <v>3.1</v>
+      </c>
+      <c r="AE152">
+        <v>2.7</v>
+      </c>
+      <c r="AF152">
+        <v>1.06</v>
+      </c>
+      <c r="AG152">
+        <v>9.6</v>
+      </c>
+      <c r="AH152">
+        <v>1.31</v>
+      </c>
+      <c r="AI152">
+        <v>3.17</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>1.72</v>
+      </c>
+      <c r="AL152">
+        <v>1.75</v>
+      </c>
+      <c r="AM152">
+        <v>1.95</v>
+      </c>
+      <c r="AN152">
+        <v>1.29</v>
+      </c>
+      <c r="AO152">
+        <v>1.29</v>
+      </c>
+      <c r="AP152">
+        <v>1.57</v>
+      </c>
+      <c r="AQ152">
+        <v>1.11</v>
+      </c>
+      <c r="AR152">
+        <v>0.38</v>
+      </c>
+      <c r="AS152">
+        <v>1.1</v>
+      </c>
+      <c r="AT152">
+        <v>0.44</v>
+      </c>
+      <c r="AU152">
+        <v>1.77</v>
+      </c>
+      <c r="AV152">
+        <v>1.54</v>
+      </c>
+      <c r="AW152">
+        <v>3.31</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>0</v>
+      </c>
+      <c r="BD152">
+        <v>1.68</v>
+      </c>
+      <c r="BE152">
+        <v>2.04</v>
+      </c>
+      <c r="BF152">
+        <v>3</v>
+      </c>
+      <c r="BG152">
+        <v>5</v>
+      </c>
+      <c r="BH152">
         <v>8</v>
+      </c>
+      <c r="BI152">
+        <v>11</v>
+      </c>
+      <c r="BJ152">
+        <v>11</v>
+      </c>
+      <c r="BK152">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,24 @@
     <t>['10']</t>
   </si>
   <si>
+    <t>['32', '42', '90+9']</t>
+  </si>
+  <si>
+    <t>['11', '26']</t>
+  </si>
+  <si>
+    <t>['34', '68']</t>
+  </si>
+  <si>
+    <t>['37', '67']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['24', '38', '90+6']</t>
+  </si>
+  <si>
     <t>['14']</t>
   </si>
   <si>
@@ -766,9 +784,6 @@
     <t>['67']</t>
   </si>
   <si>
-    <t>['7']</t>
-  </si>
-  <si>
     <t>['15', '90+6']</t>
   </si>
   <si>
@@ -812,6 +827,21 @@
   </si>
   <si>
     <t>['83', '85']</t>
+  </si>
+  <si>
+    <t>['45+5', '80']</t>
+  </si>
+  <si>
+    <t>['61', '81']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['21', '64']</t>
+  </si>
+  <si>
+    <t>['47', '55', '72']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1447,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1886,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT4">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2268,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT6">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2563,7 +2593,7 @@
         <v>85</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -2650,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT8">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2754,7 +2784,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2841,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT9">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3032,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT10">
         <v>1.33</v>
@@ -3136,7 +3166,7 @@
         <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3226,7 +3256,7 @@
         <v>1.1</v>
       </c>
       <c r="AT11">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3417,7 +3447,7 @@
         <v>2</v>
       </c>
       <c r="AT12">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3605,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT13">
         <v>1.73</v>
@@ -3799,7 +3829,7 @@
         <v>2.11</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3987,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT15">
         <v>1.4</v>
@@ -4091,7 +4121,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4181,7 +4211,7 @@
         <v>1.3</v>
       </c>
       <c r="AT16">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4369,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT17">
         <v>0.88</v>
@@ -4473,7 +4503,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4563,7 +4593,7 @@
         <v>1.89</v>
       </c>
       <c r="AT18">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU18">
         <v>2.18</v>
@@ -4664,7 +4694,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4855,7 +4885,7 @@
         <v>83</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5046,7 +5076,7 @@
         <v>96</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>4</v>
@@ -5237,7 +5267,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5428,7 +5458,7 @@
         <v>98</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5515,10 +5545,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT23">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU23">
         <v>1.96</v>
@@ -5619,7 +5649,7 @@
         <v>83</v>
       </c>
       <c r="P24" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5706,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT24">
         <v>1.73</v>
@@ -5897,10 +5927,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT25">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0</v>
@@ -6088,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU26">
         <v>0</v>
@@ -6279,10 +6309,10 @@
         <v>1</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT27">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU27">
         <v>2.42</v>
@@ -6470,10 +6500,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT28">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU28">
         <v>1.39</v>
@@ -6664,7 +6694,7 @@
         <v>2.11</v>
       </c>
       <c r="AT29">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU29">
         <v>2.17</v>
@@ -6852,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT30">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU30">
         <v>0.95</v>
@@ -6956,7 +6986,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7529,7 +7559,7 @@
         <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7720,7 +7750,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>8</v>
@@ -7911,7 +7941,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8571,10 +8601,10 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT39">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU39">
         <v>2.2</v>
@@ -8762,10 +8792,10 @@
         <v>1</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT40">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU40">
         <v>0.92</v>
@@ -8866,7 +8896,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>8</v>
@@ -8956,7 +8986,7 @@
         <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU41">
         <v>1.8</v>
@@ -9144,10 +9174,10 @@
         <v>2</v>
       </c>
       <c r="AS42">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT42">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU42">
         <v>1.22</v>
@@ -9248,7 +9278,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>15</v>
@@ -9335,10 +9365,10 @@
         <v>1</v>
       </c>
       <c r="AS43">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT43">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU43">
         <v>1.7</v>
@@ -9439,7 +9469,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9526,10 +9556,10 @@
         <v>2</v>
       </c>
       <c r="AS44">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT44">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU44">
         <v>1.12</v>
@@ -9717,10 +9747,10 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT45">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU45">
         <v>1.84</v>
@@ -9821,7 +9851,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -9908,7 +9938,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT46">
         <v>1.73</v>
@@ -10012,7 +10042,7 @@
         <v>83</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>10</v>
@@ -10203,7 +10233,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10585,7 +10615,7 @@
         <v>116</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>4</v>
@@ -10866,7 +10896,7 @@
         <v>1.1</v>
       </c>
       <c r="AT51">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU51">
         <v>1.61</v>
@@ -11158,7 +11188,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>2</v>
@@ -11436,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT54">
         <v>0.44</v>
@@ -11731,7 +11761,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11922,7 +11952,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12012,7 +12042,7 @@
         <v>1.6</v>
       </c>
       <c r="AT57">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU57">
         <v>1.69</v>
@@ -12200,10 +12230,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT58">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.03</v>
@@ -12391,7 +12421,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT59">
         <v>0.8</v>
@@ -12582,10 +12612,10 @@
         <v>2.33</v>
       </c>
       <c r="AS60">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT60">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU60">
         <v>1.42</v>
@@ -12773,10 +12803,10 @@
         <v>1.67</v>
       </c>
       <c r="AS61">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT61">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU61">
         <v>1.97</v>
@@ -12964,10 +12994,10 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT62">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU62">
         <v>1.65</v>
@@ -13068,7 +13098,7 @@
         <v>83</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13158,7 +13188,7 @@
         <v>1.5</v>
       </c>
       <c r="AT63">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU63">
         <v>1.65</v>
@@ -13346,7 +13376,7 @@
         <v>2</v>
       </c>
       <c r="AS64">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT64">
         <v>1.6</v>
@@ -13540,7 +13570,7 @@
         <v>2.11</v>
       </c>
       <c r="AT65">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU65">
         <v>1.94</v>
@@ -13728,7 +13758,7 @@
         <v>0.8</v>
       </c>
       <c r="AS66">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT66">
         <v>1.4</v>
@@ -13832,7 +13862,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14023,7 +14053,7 @@
         <v>131</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -14110,7 +14140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT68">
         <v>1.6</v>
@@ -14214,7 +14244,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14495,7 +14525,7 @@
         <v>1.1</v>
       </c>
       <c r="AT70">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU70">
         <v>1.58</v>
@@ -14596,7 +14626,7 @@
         <v>133</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14686,7 +14716,7 @@
         <v>1.89</v>
       </c>
       <c r="AT71">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU71">
         <v>2.05</v>
@@ -14787,7 +14817,7 @@
         <v>83</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>10</v>
@@ -14874,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT72">
         <v>1.33</v>
@@ -15068,7 +15098,7 @@
         <v>1.6</v>
       </c>
       <c r="AT73">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.79</v>
@@ -15256,10 +15286,10 @@
         <v>1.6</v>
       </c>
       <c r="AS74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT74">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>1.45</v>
@@ -15447,10 +15477,10 @@
         <v>2</v>
       </c>
       <c r="AS75">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT75">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU75">
         <v>1.05</v>
@@ -15638,10 +15668,10 @@
         <v>0.5</v>
       </c>
       <c r="AS76">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU76">
         <v>1.93</v>
@@ -15829,10 +15859,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT77">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU77">
         <v>1.83</v>
@@ -16020,7 +16050,7 @@
         <v>1.8</v>
       </c>
       <c r="AS78">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT78">
         <v>1.6</v>
@@ -16214,7 +16244,7 @@
         <v>2.4</v>
       </c>
       <c r="AT79">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU79">
         <v>1.91</v>
@@ -16402,7 +16432,7 @@
         <v>0</v>
       </c>
       <c r="AS80">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT80">
         <v>0.44</v>
@@ -16593,10 +16623,10 @@
         <v>0.4</v>
       </c>
       <c r="AS81">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU81">
         <v>1.14</v>
@@ -16697,7 +16727,7 @@
         <v>142</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2</v>
@@ -16784,7 +16814,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT82">
         <v>0.3</v>
@@ -16978,7 +17008,7 @@
         <v>1.3</v>
       </c>
       <c r="AT83">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU83">
         <v>1.79</v>
@@ -17079,7 +17109,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17166,7 +17196,7 @@
         <v>0.6</v>
       </c>
       <c r="AS84">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT84">
         <v>0.8</v>
@@ -17360,7 +17390,7 @@
         <v>2.4</v>
       </c>
       <c r="AT85">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU85">
         <v>1.86</v>
@@ -17461,7 +17491,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17551,7 +17581,7 @@
         <v>2</v>
       </c>
       <c r="AT86">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU86">
         <v>1.91</v>
@@ -17652,7 +17682,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -17739,7 +17769,7 @@
         <v>0.67</v>
       </c>
       <c r="AS87">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
         <v>1.4</v>
@@ -17843,7 +17873,7 @@
         <v>83</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>6</v>
@@ -18121,7 +18151,7 @@
         <v>1.33</v>
       </c>
       <c r="AS89">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT89">
         <v>0.88</v>
@@ -18315,7 +18345,7 @@
         <v>1.5</v>
       </c>
       <c r="AT90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU90">
         <v>1.7</v>
@@ -18694,10 +18724,10 @@
         <v>0.6</v>
       </c>
       <c r="AS92">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT92">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU92">
         <v>1.85</v>
@@ -18798,7 +18828,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>7</v>
@@ -18885,7 +18915,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT93">
         <v>1.33</v>
@@ -18989,7 +19019,7 @@
         <v>152</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19079,7 +19109,7 @@
         <v>2.11</v>
       </c>
       <c r="AT94">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.8</v>
@@ -19180,7 +19210,7 @@
         <v>153</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>5</v>
@@ -19371,7 +19401,7 @@
         <v>154</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -19458,10 +19488,10 @@
         <v>1.25</v>
       </c>
       <c r="AS96">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT96">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU96">
         <v>1.6</v>
@@ -19562,7 +19592,7 @@
         <v>155</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19649,10 +19679,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT97">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU97">
         <v>1.71</v>
@@ -19753,7 +19783,7 @@
         <v>156</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>4</v>
@@ -19840,7 +19870,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT98">
         <v>1.4</v>
@@ -20225,7 +20255,7 @@
         <v>2.4</v>
       </c>
       <c r="AT100">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.87</v>
@@ -20326,7 +20356,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>11</v>
@@ -20416,7 +20446,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU101">
         <v>1.75</v>
@@ -20517,7 +20547,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20604,7 +20634,7 @@
         <v>0.5</v>
       </c>
       <c r="AS102">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT102">
         <v>0.8</v>
@@ -20986,10 +21016,10 @@
         <v>0.33</v>
       </c>
       <c r="AS104">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT104">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU104">
         <v>1.6</v>
@@ -21090,7 +21120,7 @@
         <v>163</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21177,7 +21207,7 @@
         <v>1</v>
       </c>
       <c r="AS105">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT105">
         <v>0.88</v>
@@ -21281,7 +21311,7 @@
         <v>125</v>
       </c>
       <c r="P106" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>5</v>
@@ -21371,7 +21401,7 @@
         <v>1.3</v>
       </c>
       <c r="AT106">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU106">
         <v>1.91</v>
@@ -21472,7 +21502,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21753,7 +21783,7 @@
         <v>2.11</v>
       </c>
       <c r="AT108">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU108">
         <v>1.8</v>
@@ -21944,7 +21974,7 @@
         <v>1.89</v>
       </c>
       <c r="AT109">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU109">
         <v>2.4</v>
@@ -22045,7 +22075,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q110">
         <v>7</v>
@@ -22132,7 +22162,7 @@
         <v>0.43</v>
       </c>
       <c r="AS110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT110">
         <v>0.3</v>
@@ -22236,7 +22266,7 @@
         <v>168</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22323,7 +22353,7 @@
         <v>0</v>
       </c>
       <c r="AS111">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT111">
         <v>0.44</v>
@@ -22427,7 +22457,7 @@
         <v>83</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22618,7 +22648,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22705,7 +22735,7 @@
         <v>0.57</v>
       </c>
       <c r="AS113">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT113">
         <v>0.8</v>
@@ -22809,7 +22839,7 @@
         <v>170</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>0</v>
@@ -22896,7 +22926,7 @@
         <v>1.5</v>
       </c>
       <c r="AS114">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT114">
         <v>1.73</v>
@@ -23090,7 +23120,7 @@
         <v>2.4</v>
       </c>
       <c r="AT115">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -23191,7 +23221,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>11</v>
@@ -23278,10 +23308,10 @@
         <v>1.14</v>
       </c>
       <c r="AS116">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT116">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU116">
         <v>1.6</v>
@@ -23382,7 +23412,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>11</v>
@@ -23469,7 +23499,7 @@
         <v>1.25</v>
       </c>
       <c r="AS117">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT117">
         <v>1.4</v>
@@ -23663,7 +23693,7 @@
         <v>1.6</v>
       </c>
       <c r="AT118">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU118">
         <v>1.96</v>
@@ -23764,7 +23794,7 @@
         <v>173</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23851,10 +23881,10 @@
         <v>1.29</v>
       </c>
       <c r="AS119">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT119">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU119">
         <v>1.76</v>
@@ -23955,7 +23985,7 @@
         <v>128</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24045,7 +24075,7 @@
         <v>1.1</v>
       </c>
       <c r="AT120">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU120">
         <v>1.66</v>
@@ -24233,7 +24263,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT121">
         <v>0.88</v>
@@ -24337,7 +24367,7 @@
         <v>175</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24424,10 +24454,10 @@
         <v>0.38</v>
       </c>
       <c r="AS122">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT122">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU122">
         <v>1.78</v>
@@ -24528,7 +24558,7 @@
         <v>176</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>7</v>
@@ -24806,10 +24836,10 @@
         <v>1</v>
       </c>
       <c r="AS124">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT124">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU124">
         <v>1.75</v>
@@ -24910,7 +24940,7 @@
         <v>178</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25188,10 +25218,10 @@
         <v>0.86</v>
       </c>
       <c r="AS126">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT126">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU126">
         <v>1.74</v>
@@ -25292,7 +25322,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>9</v>
@@ -25379,10 +25409,10 @@
         <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT127">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU127">
         <v>1.83</v>
@@ -25483,7 +25513,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25674,7 +25704,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>8</v>
@@ -25761,10 +25791,10 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT129">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU129">
         <v>1.6</v>
@@ -26056,7 +26086,7 @@
         <v>184</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26143,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="AS131">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT131">
         <v>0.44</v>
@@ -26334,7 +26364,7 @@
         <v>0.5</v>
       </c>
       <c r="AS132">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT132">
         <v>0.8</v>
@@ -26438,7 +26468,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26525,7 +26555,7 @@
         <v>1.63</v>
       </c>
       <c r="AS133">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT133">
         <v>1.6</v>
@@ -26629,7 +26659,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26716,10 +26746,10 @@
         <v>0.86</v>
       </c>
       <c r="AS134">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT134">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU134">
         <v>1.85</v>
@@ -26820,7 +26850,7 @@
         <v>187</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>9</v>
@@ -26910,7 +26940,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU135">
         <v>1.97</v>
@@ -27011,7 +27041,7 @@
         <v>188</v>
       </c>
       <c r="P136" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q136">
         <v>7</v>
@@ -27101,7 +27131,7 @@
         <v>1.3</v>
       </c>
       <c r="AT136">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>1.86</v>
@@ -27202,7 +27232,7 @@
         <v>83</v>
       </c>
       <c r="P137" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q137">
         <v>6</v>
@@ -27292,7 +27322,7 @@
         <v>2.11</v>
       </c>
       <c r="AT137">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU137">
         <v>1.68</v>
@@ -27480,10 +27510,10 @@
         <v>0.75</v>
       </c>
       <c r="AS138">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AT138">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU138">
         <v>1.72</v>
@@ -27671,10 +27701,10 @@
         <v>0.75</v>
       </c>
       <c r="AS139">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT139">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU139">
         <v>1.89</v>
@@ -27775,7 +27805,7 @@
         <v>83</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -27862,7 +27892,7 @@
         <v>1.29</v>
       </c>
       <c r="AS140">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT140">
         <v>1.33</v>
@@ -28056,7 +28086,7 @@
         <v>2</v>
       </c>
       <c r="AT141">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AU141">
         <v>1.73</v>
@@ -28157,7 +28187,7 @@
         <v>191</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>7</v>
@@ -28244,10 +28274,10 @@
         <v>0.44</v>
       </c>
       <c r="AS142">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT142">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU142">
         <v>1.81</v>
@@ -28348,7 +28378,7 @@
         <v>192</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -28435,7 +28465,7 @@
         <v>1.6</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AT143">
         <v>1.73</v>
@@ -28539,7 +28569,7 @@
         <v>83</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -28626,10 +28656,10 @@
         <v>0.88</v>
       </c>
       <c r="AS144">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT144">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>1.8</v>
@@ -28730,7 +28760,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>5</v>
@@ -29008,7 +29038,7 @@
         <v>0.33</v>
       </c>
       <c r="AS146">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT146">
         <v>0.3</v>
@@ -29112,7 +29142,7 @@
         <v>195</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>8</v>
@@ -29202,7 +29232,7 @@
         <v>2</v>
       </c>
       <c r="AT147">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU147">
         <v>1.7</v>
@@ -29494,7 +29524,7 @@
         <v>161</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29876,7 +29906,7 @@
         <v>83</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>7</v>
@@ -30067,7 +30097,7 @@
         <v>178</v>
       </c>
       <c r="P152" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q152">
         <v>1</v>
@@ -30209,6 +30239,1534 @@
       </c>
       <c r="BK152">
         <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5121144</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45135.89583333334</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
+      </c>
+      <c r="G153" t="s">
+        <v>72</v>
+      </c>
+      <c r="H153" t="s">
+        <v>68</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="O153" t="s">
+        <v>198</v>
+      </c>
+      <c r="P153" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>2</v>
+      </c>
+      <c r="S153">
+        <v>6</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>2.1</v>
+      </c>
+      <c r="V153">
+        <v>4.33</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>2.75</v>
+      </c>
+      <c r="Y153">
+        <v>2.8</v>
+      </c>
+      <c r="Z153">
+        <v>1.38</v>
+      </c>
+      <c r="AA153">
+        <v>6.5</v>
+      </c>
+      <c r="AB153">
+        <v>1.08</v>
+      </c>
+      <c r="AC153">
+        <v>2.05</v>
+      </c>
+      <c r="AD153">
+        <v>3.25</v>
+      </c>
+      <c r="AE153">
+        <v>3.25</v>
+      </c>
+      <c r="AF153">
+        <v>1.05</v>
+      </c>
+      <c r="AG153">
+        <v>11</v>
+      </c>
+      <c r="AH153">
+        <v>1.28</v>
+      </c>
+      <c r="AI153">
+        <v>3.33</v>
+      </c>
+      <c r="AJ153">
+        <v>1.92</v>
+      </c>
+      <c r="AK153">
+        <v>1.78</v>
+      </c>
+      <c r="AL153">
+        <v>1.75</v>
+      </c>
+      <c r="AM153">
+        <v>1.95</v>
+      </c>
+      <c r="AN153">
+        <v>1.24</v>
+      </c>
+      <c r="AO153">
+        <v>1.3</v>
+      </c>
+      <c r="AP153">
+        <v>1.62</v>
+      </c>
+      <c r="AQ153">
+        <v>2.11</v>
+      </c>
+      <c r="AR153">
+        <v>0.78</v>
+      </c>
+      <c r="AS153">
+        <v>2.2</v>
+      </c>
+      <c r="AT153">
+        <v>0.7</v>
+      </c>
+      <c r="AU153">
+        <v>1.85</v>
+      </c>
+      <c r="AV153">
+        <v>1.29</v>
+      </c>
+      <c r="AW153">
+        <v>3.14</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>1.76</v>
+      </c>
+      <c r="BD153">
+        <v>2.17</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>6</v>
+      </c>
+      <c r="BG153">
+        <v>6</v>
+      </c>
+      <c r="BH153">
+        <v>14</v>
+      </c>
+      <c r="BI153">
+        <v>11</v>
+      </c>
+      <c r="BJ153">
+        <v>20</v>
+      </c>
+      <c r="BK153">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5121134</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45136.5625</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>67</v>
+      </c>
+      <c r="H154" t="s">
+        <v>66</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>199</v>
+      </c>
+      <c r="P154" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q154">
+        <v>7</v>
+      </c>
+      <c r="R154">
+        <v>2</v>
+      </c>
+      <c r="S154">
+        <v>9</v>
+      </c>
+      <c r="T154">
+        <v>3.25</v>
+      </c>
+      <c r="U154">
+        <v>2.05</v>
+      </c>
+      <c r="V154">
+        <v>3.1</v>
+      </c>
+      <c r="W154">
+        <v>1.42</v>
+      </c>
+      <c r="X154">
+        <v>2.65</v>
+      </c>
+      <c r="Y154">
+        <v>2.85</v>
+      </c>
+      <c r="Z154">
+        <v>1.38</v>
+      </c>
+      <c r="AA154">
+        <v>6.75</v>
+      </c>
+      <c r="AB154">
+        <v>1.08</v>
+      </c>
+      <c r="AC154">
+        <v>2.69</v>
+      </c>
+      <c r="AD154">
+        <v>3.3</v>
+      </c>
+      <c r="AE154">
+        <v>2.25</v>
+      </c>
+      <c r="AF154">
+        <v>1.05</v>
+      </c>
+      <c r="AG154">
+        <v>10.75</v>
+      </c>
+      <c r="AH154">
+        <v>1.3</v>
+      </c>
+      <c r="AI154">
+        <v>3.2</v>
+      </c>
+      <c r="AJ154">
+        <v>2.01</v>
+      </c>
+      <c r="AK154">
+        <v>1.79</v>
+      </c>
+      <c r="AL154">
+        <v>1.75</v>
+      </c>
+      <c r="AM154">
+        <v>1.95</v>
+      </c>
+      <c r="AN154">
+        <v>1.38</v>
+      </c>
+      <c r="AO154">
+        <v>1.3</v>
+      </c>
+      <c r="AP154">
+        <v>1.4</v>
+      </c>
+      <c r="AQ154">
+        <v>0.82</v>
+      </c>
+      <c r="AR154">
+        <v>1.6</v>
+      </c>
+      <c r="AS154">
+        <v>0.83</v>
+      </c>
+      <c r="AT154">
+        <v>1.55</v>
+      </c>
+      <c r="AU154">
+        <v>1.27</v>
+      </c>
+      <c r="AV154">
+        <v>1.48</v>
+      </c>
+      <c r="AW154">
+        <v>2.75</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>1.5</v>
+      </c>
+      <c r="BC154">
+        <v>1.88</v>
+      </c>
+      <c r="BD154">
+        <v>2.26</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>6</v>
+      </c>
+      <c r="BG154">
+        <v>5</v>
+      </c>
+      <c r="BH154">
+        <v>5</v>
+      </c>
+      <c r="BI154">
+        <v>3</v>
+      </c>
+      <c r="BJ154">
+        <v>11</v>
+      </c>
+      <c r="BK154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5121018</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45136.5625</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>200</v>
+      </c>
+      <c r="P155" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q155">
+        <v>8</v>
+      </c>
+      <c r="R155">
+        <v>11</v>
+      </c>
+      <c r="S155">
+        <v>19</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
+        <v>2.1</v>
+      </c>
+      <c r="V155">
+        <v>4.33</v>
+      </c>
+      <c r="W155">
+        <v>1.38</v>
+      </c>
+      <c r="X155">
+        <v>2.8</v>
+      </c>
+      <c r="Y155">
+        <v>2.75</v>
+      </c>
+      <c r="Z155">
+        <v>1.4</v>
+      </c>
+      <c r="AA155">
+        <v>6.25</v>
+      </c>
+      <c r="AB155">
+        <v>1.09</v>
+      </c>
+      <c r="AC155">
+        <v>1.82</v>
+      </c>
+      <c r="AD155">
+        <v>3.4</v>
+      </c>
+      <c r="AE155">
+        <v>3.6</v>
+      </c>
+      <c r="AF155">
+        <v>1.05</v>
+      </c>
+      <c r="AG155">
+        <v>11.25</v>
+      </c>
+      <c r="AH155">
+        <v>1.27</v>
+      </c>
+      <c r="AI155">
+        <v>3.38</v>
+      </c>
+      <c r="AJ155">
+        <v>1.89</v>
+      </c>
+      <c r="AK155">
+        <v>1.91</v>
+      </c>
+      <c r="AL155">
+        <v>1.75</v>
+      </c>
+      <c r="AM155">
+        <v>1.95</v>
+      </c>
+      <c r="AN155">
+        <v>1.23</v>
+      </c>
+      <c r="AO155">
+        <v>1.3</v>
+      </c>
+      <c r="AP155">
+        <v>1.62</v>
+      </c>
+      <c r="AQ155">
+        <v>1.63</v>
+      </c>
+      <c r="AR155">
+        <v>0.5</v>
+      </c>
+      <c r="AS155">
+        <v>1.78</v>
+      </c>
+      <c r="AT155">
+        <v>0.45</v>
+      </c>
+      <c r="AU155">
+        <v>1.76</v>
+      </c>
+      <c r="AV155">
+        <v>1.05</v>
+      </c>
+      <c r="AW155">
+        <v>2.81</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>4</v>
+      </c>
+      <c r="BH155">
+        <v>9</v>
+      </c>
+      <c r="BI155">
+        <v>6</v>
+      </c>
+      <c r="BJ155">
+        <v>14</v>
+      </c>
+      <c r="BK155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5121143</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45136.89583333334</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>69</v>
+      </c>
+      <c r="H156" t="s">
+        <v>77</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156" t="s">
+        <v>83</v>
+      </c>
+      <c r="P156" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q156">
+        <v>8</v>
+      </c>
+      <c r="R156">
+        <v>6</v>
+      </c>
+      <c r="S156">
+        <v>14</v>
+      </c>
+      <c r="T156">
+        <v>3</v>
+      </c>
+      <c r="U156">
+        <v>1.95</v>
+      </c>
+      <c r="V156">
+        <v>3.75</v>
+      </c>
+      <c r="W156">
+        <v>1.45</v>
+      </c>
+      <c r="X156">
+        <v>2.55</v>
+      </c>
+      <c r="Y156">
+        <v>3.05</v>
+      </c>
+      <c r="Z156">
+        <v>1.32</v>
+      </c>
+      <c r="AA156">
+        <v>7.25</v>
+      </c>
+      <c r="AB156">
+        <v>1.06</v>
+      </c>
+      <c r="AC156">
+        <v>1.97</v>
+      </c>
+      <c r="AD156">
+        <v>3.25</v>
+      </c>
+      <c r="AE156">
+        <v>3.55</v>
+      </c>
+      <c r="AF156">
+        <v>1.07</v>
+      </c>
+      <c r="AG156">
+        <v>8.9</v>
+      </c>
+      <c r="AH156">
+        <v>1.35</v>
+      </c>
+      <c r="AI156">
+        <v>2.94</v>
+      </c>
+      <c r="AJ156">
+        <v>2.05</v>
+      </c>
+      <c r="AK156">
+        <v>1.61</v>
+      </c>
+      <c r="AL156">
+        <v>1.85</v>
+      </c>
+      <c r="AM156">
+        <v>1.85</v>
+      </c>
+      <c r="AN156">
+        <v>1.3</v>
+      </c>
+      <c r="AO156">
+        <v>1.32</v>
+      </c>
+      <c r="AP156">
+        <v>1.5</v>
+      </c>
+      <c r="AQ156">
+        <v>1.7</v>
+      </c>
+      <c r="AR156">
+        <v>1.56</v>
+      </c>
+      <c r="AS156">
+        <v>1.64</v>
+      </c>
+      <c r="AT156">
+        <v>1.5</v>
+      </c>
+      <c r="AU156">
+        <v>1.85</v>
+      </c>
+      <c r="AV156">
+        <v>1.37</v>
+      </c>
+      <c r="AW156">
+        <v>3.22</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>1.59</v>
+      </c>
+      <c r="BC156">
+        <v>1.95</v>
+      </c>
+      <c r="BD156">
+        <v>2.47</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>5</v>
+      </c>
+      <c r="BG156">
+        <v>6</v>
+      </c>
+      <c r="BH156">
+        <v>10</v>
+      </c>
+      <c r="BI156">
+        <v>10</v>
+      </c>
+      <c r="BJ156">
+        <v>15</v>
+      </c>
+      <c r="BK156">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5121146</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45137.5625</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>80</v>
+      </c>
+      <c r="H157" t="s">
+        <v>78</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>201</v>
+      </c>
+      <c r="P157" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q157">
+        <v>4</v>
+      </c>
+      <c r="R157">
+        <v>8</v>
+      </c>
+      <c r="S157">
+        <v>12</v>
+      </c>
+      <c r="T157">
+        <v>2.3</v>
+      </c>
+      <c r="U157">
+        <v>2.2</v>
+      </c>
+      <c r="V157">
+        <v>4.75</v>
+      </c>
+      <c r="W157">
+        <v>1.35</v>
+      </c>
+      <c r="X157">
+        <v>2.95</v>
+      </c>
+      <c r="Y157">
+        <v>2.6</v>
+      </c>
+      <c r="Z157">
+        <v>1.45</v>
+      </c>
+      <c r="AA157">
+        <v>5.75</v>
+      </c>
+      <c r="AB157">
+        <v>1.1</v>
+      </c>
+      <c r="AC157">
+        <v>1.68</v>
+      </c>
+      <c r="AD157">
+        <v>3.14</v>
+      </c>
+      <c r="AE157">
+        <v>4.06</v>
+      </c>
+      <c r="AF157">
+        <v>1.03</v>
+      </c>
+      <c r="AG157">
+        <v>13.75</v>
+      </c>
+      <c r="AH157">
+        <v>1.24</v>
+      </c>
+      <c r="AI157">
+        <v>3.7</v>
+      </c>
+      <c r="AJ157">
+        <v>1.72</v>
+      </c>
+      <c r="AK157">
+        <v>1.89</v>
+      </c>
+      <c r="AL157">
+        <v>1.72</v>
+      </c>
+      <c r="AM157">
+        <v>2</v>
+      </c>
+      <c r="AN157">
+        <v>1.18</v>
+      </c>
+      <c r="AO157">
+        <v>1.25</v>
+      </c>
+      <c r="AP157">
+        <v>1.8</v>
+      </c>
+      <c r="AQ157">
+        <v>2</v>
+      </c>
+      <c r="AR157">
+        <v>0.89</v>
+      </c>
+      <c r="AS157">
+        <v>1.9</v>
+      </c>
+      <c r="AT157">
+        <v>0.9</v>
+      </c>
+      <c r="AU157">
+        <v>1.87</v>
+      </c>
+      <c r="AV157">
+        <v>1.43</v>
+      </c>
+      <c r="AW157">
+        <v>3.3</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>10</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>6</v>
+      </c>
+      <c r="BI157">
+        <v>2</v>
+      </c>
+      <c r="BJ157">
+        <v>16</v>
+      </c>
+      <c r="BK157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>5121145</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45137.66666666666</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>76</v>
+      </c>
+      <c r="H158" t="s">
+        <v>74</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>202</v>
+      </c>
+      <c r="P158" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>6</v>
+      </c>
+      <c r="S158">
+        <v>10</v>
+      </c>
+      <c r="T158">
+        <v>2.63</v>
+      </c>
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
+        <v>4.5</v>
+      </c>
+      <c r="W158">
+        <v>1.45</v>
+      </c>
+      <c r="X158">
+        <v>2.55</v>
+      </c>
+      <c r="Y158">
+        <v>3.05</v>
+      </c>
+      <c r="Z158">
+        <v>1.32</v>
+      </c>
+      <c r="AA158">
+        <v>7</v>
+      </c>
+      <c r="AB158">
+        <v>1.06</v>
+      </c>
+      <c r="AC158">
+        <v>1.97</v>
+      </c>
+      <c r="AD158">
+        <v>2.85</v>
+      </c>
+      <c r="AE158">
+        <v>3.33</v>
+      </c>
+      <c r="AF158">
+        <v>1.07</v>
+      </c>
+      <c r="AG158">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH158">
+        <v>1.35</v>
+      </c>
+      <c r="AI158">
+        <v>2.96</v>
+      </c>
+      <c r="AJ158">
+        <v>2.2</v>
+      </c>
+      <c r="AK158">
+        <v>1.6</v>
+      </c>
+      <c r="AL158">
+        <v>1.85</v>
+      </c>
+      <c r="AM158">
+        <v>1.85</v>
+      </c>
+      <c r="AN158">
+        <v>1.24</v>
+      </c>
+      <c r="AO158">
+        <v>1.3</v>
+      </c>
+      <c r="AP158">
+        <v>1.58</v>
+      </c>
+      <c r="AQ158">
+        <v>1.78</v>
+      </c>
+      <c r="AR158">
+        <v>1.11</v>
+      </c>
+      <c r="AS158">
+        <v>1.9</v>
+      </c>
+      <c r="AT158">
+        <v>1</v>
+      </c>
+      <c r="AU158">
+        <v>1.82</v>
+      </c>
+      <c r="AV158">
+        <v>1.48</v>
+      </c>
+      <c r="AW158">
+        <v>3.3</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>1.57</v>
+      </c>
+      <c r="BD158">
+        <v>1.85</v>
+      </c>
+      <c r="BE158">
+        <v>2.19</v>
+      </c>
+      <c r="BF158">
+        <v>2</v>
+      </c>
+      <c r="BG158">
+        <v>4</v>
+      </c>
+      <c r="BH158">
+        <v>4</v>
+      </c>
+      <c r="BI158">
+        <v>4</v>
+      </c>
+      <c r="BJ158">
+        <v>6</v>
+      </c>
+      <c r="BK158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>5121141</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45138.79166666666</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s">
+        <v>65</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>6</v>
+      </c>
+      <c r="O159" t="s">
+        <v>203</v>
+      </c>
+      <c r="P159" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q159">
+        <v>5</v>
+      </c>
+      <c r="R159">
+        <v>6</v>
+      </c>
+      <c r="S159">
+        <v>11</v>
+      </c>
+      <c r="T159">
+        <v>3.1</v>
+      </c>
+      <c r="U159">
+        <v>1.95</v>
+      </c>
+      <c r="V159">
+        <v>3.6</v>
+      </c>
+      <c r="W159">
+        <v>1.45</v>
+      </c>
+      <c r="X159">
+        <v>2.55</v>
+      </c>
+      <c r="Y159">
+        <v>2.92</v>
+      </c>
+      <c r="Z159">
+        <v>1.32</v>
+      </c>
+      <c r="AA159">
+        <v>7.3</v>
+      </c>
+      <c r="AB159">
+        <v>1.06</v>
+      </c>
+      <c r="AC159">
+        <v>2.43</v>
+      </c>
+      <c r="AD159">
+        <v>3.1</v>
+      </c>
+      <c r="AE159">
+        <v>2.59</v>
+      </c>
+      <c r="AF159">
+        <v>1.07</v>
+      </c>
+      <c r="AG159">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH159">
+        <v>1.33</v>
+      </c>
+      <c r="AI159">
+        <v>2.87</v>
+      </c>
+      <c r="AJ159">
+        <v>2.15</v>
+      </c>
+      <c r="AK159">
+        <v>1.62</v>
+      </c>
+      <c r="AL159">
+        <v>1.82</v>
+      </c>
+      <c r="AM159">
+        <v>1.88</v>
+      </c>
+      <c r="AN159">
+        <v>1.32</v>
+      </c>
+      <c r="AO159">
+        <v>1.35</v>
+      </c>
+      <c r="AP159">
+        <v>1.45</v>
+      </c>
+      <c r="AQ159">
+        <v>1.4</v>
+      </c>
+      <c r="AR159">
+        <v>0.78</v>
+      </c>
+      <c r="AS159">
+        <v>1.36</v>
+      </c>
+      <c r="AT159">
+        <v>0.8</v>
+      </c>
+      <c r="AU159">
+        <v>1.76</v>
+      </c>
+      <c r="AV159">
+        <v>1.7</v>
+      </c>
+      <c r="AW159">
+        <v>3.46</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="AZ159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>1.35</v>
+      </c>
+      <c r="BC159">
+        <v>1.7</v>
+      </c>
+      <c r="BD159">
+        <v>2.09</v>
+      </c>
+      <c r="BE159">
+        <v>2.75</v>
+      </c>
+      <c r="BF159">
+        <v>5</v>
+      </c>
+      <c r="BG159">
+        <v>7</v>
+      </c>
+      <c r="BH159">
+        <v>20</v>
+      </c>
+      <c r="BI159">
+        <v>6</v>
+      </c>
+      <c r="BJ159">
+        <v>25</v>
+      </c>
+      <c r="BK159">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>5121147</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45138.89583333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s">
+        <v>75</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>89</v>
+      </c>
+      <c r="P160" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q160">
+        <v>4</v>
+      </c>
+      <c r="R160">
+        <v>7</v>
+      </c>
+      <c r="S160">
+        <v>11</v>
+      </c>
+      <c r="T160">
+        <v>2.6</v>
+      </c>
+      <c r="U160">
+        <v>2</v>
+      </c>
+      <c r="V160">
+        <v>4.5</v>
+      </c>
+      <c r="W160">
+        <v>1.45</v>
+      </c>
+      <c r="X160">
+        <v>2.55</v>
+      </c>
+      <c r="Y160">
+        <v>3.15</v>
+      </c>
+      <c r="Z160">
+        <v>1.3</v>
+      </c>
+      <c r="AA160">
+        <v>7.9</v>
+      </c>
+      <c r="AB160">
+        <v>1.05</v>
+      </c>
+      <c r="AC160">
+        <v>1.85</v>
+      </c>
+      <c r="AD160">
+        <v>3.32</v>
+      </c>
+      <c r="AE160">
+        <v>3.82</v>
+      </c>
+      <c r="AF160">
+        <v>1.06</v>
+      </c>
+      <c r="AG160">
+        <v>9.5</v>
+      </c>
+      <c r="AH160">
+        <v>1.32</v>
+      </c>
+      <c r="AI160">
+        <v>2.92</v>
+      </c>
+      <c r="AJ160">
+        <v>2</v>
+      </c>
+      <c r="AK160">
+        <v>1.7</v>
+      </c>
+      <c r="AL160">
+        <v>1.88</v>
+      </c>
+      <c r="AM160">
+        <v>1.82</v>
+      </c>
+      <c r="AN160">
+        <v>1.24</v>
+      </c>
+      <c r="AO160">
+        <v>1.28</v>
+      </c>
+      <c r="AP160">
+        <v>1.65</v>
+      </c>
+      <c r="AQ160">
+        <v>2</v>
+      </c>
+      <c r="AR160">
+        <v>1.11</v>
+      </c>
+      <c r="AS160">
+        <v>2.1</v>
+      </c>
+      <c r="AT160">
+        <v>1</v>
+      </c>
+      <c r="AU160">
+        <v>1.77</v>
+      </c>
+      <c r="AV160">
+        <v>1.31</v>
+      </c>
+      <c r="AW160">
+        <v>3.08</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>1.25</v>
+      </c>
+      <c r="BC160">
+        <v>1.51</v>
+      </c>
+      <c r="BD160">
+        <v>1.85</v>
+      </c>
+      <c r="BE160">
+        <v>2.26</v>
+      </c>
+      <c r="BF160">
+        <v>4</v>
+      </c>
+      <c r="BG160">
+        <v>4</v>
+      </c>
+      <c r="BH160">
+        <v>6</v>
+      </c>
+      <c r="BI160">
+        <v>9</v>
+      </c>
+      <c r="BJ160">
+        <v>10</v>
+      </c>
+      <c r="BK160">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
